--- a/data/hotels_by_city/Dallas/Dallas_shard_522.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_522.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r585063513-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12170988</t>
+  </si>
+  <si>
+    <t>585063513</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Family Vacation</t>
+  </si>
+  <si>
+    <t>This hotel is the best, everywhere u look it’s art n sculpture it’s like u walking in a museum, it’s just Beautiful and the rooms are so clean and da view is stunning. The pool, dining area and sitting area great and Mr Antonio B is the nicest man I met, he help us to find places, gave us brochures to get to different places that was close to hotel and all of the other workers was great. This Hotel Lorenzo was AWESOME, GREAT, BEAUTIFUL and RELAXING Thank u all for a great time Ms. B</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r584899369-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584899369</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Worst experience ever!</t>
+  </si>
+  <si>
+    <t>Management sucks!!!! Kicked us out for a boy under 21 and they let our 18 year old in WITHOUT IDing her....needless to say they wanted her good looks for getting people in the pool! Also our room was dirty!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r584895227-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584895227</t>
+  </si>
+  <si>
+    <t>Worst experience ever!!!</t>
+  </si>
+  <si>
+    <t>Started out the first day our room was never cleaned. Next we decided on our vacation Sunday would be our pool day, we went down in the afternoon for my cousins 14th birthday to find out they don't let anyone under 21 in. Which was really odd because there were others in there under 18!!! She said it said that on the webpage, which I still have not found!!! What a joke!! Literally got kicked out for telling them there were underage kids in there...no profanity or hostility from my side!!! Just from the extremely rude workers!!!!! They are awful ppl!!!! Note don't stay here with kids!!!! Pigs!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r582488930-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>582488930</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Happy visitor</t>
+  </si>
+  <si>
+    <t>Antonio B was a great help this morning he’s the door hop and he was awesome we locked our keys in the car this morning and he helped assist us with AAA and even stayed til they arrived. Then he helped assist with luggageMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Antonio B was a great help this morning he’s the door hop and he was awesome we locked our keys in the car this morning and he helped assist us with AAA and even stayed til they arrived. Then he helped assist with luggageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r581275261-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>581275261</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Need Improvement</t>
+  </si>
+  <si>
+    <t>It looks like a gothic hotel from inside and trendy from outside. I feel like I am attending Halloween horror nights. Check in was good but I had to wait 15 minutes. Can you believe only 1 person working at the front desk in this big hotel. Check in person was nice. Cool looking bar with moderate drink prices. Happy hour selection is a joke. You are giving few drinks which don't cost a lot but you can provide at least 6 to 8 selections. Lobby was clean! get to the elevator and I felt like I am in a submarine. Cool elevators! It is not bright when I walk from elevator to room and like I said Halloween Horror nights. It is something different I experienced. Bathroom was amazing in our room. If you are a light sleeper please don't book this hotel since it is next to the highway. It was ok for me. No complimentary Breakfast provided at this hotel and the breakfast is expensive. There are lot of options for breakfast within 2 miles away if you stay at Lorenzo. If you have a corporate card go for this hotel but with family I would go Hilton or Marriot properties since they have COMP breakfast. This hotel is not cheap so they should expect Guest requires higher satisfaction. 
+This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They...It looks like a gothic hotel from inside and trendy from outside. I feel like I am attending Halloween horror nights. Check in was good but I had to wait 15 minutes. Can you believe only 1 person working at the front desk in this big hotel. Check in person was nice. Cool looking bar with moderate drink prices. Happy hour selection is a joke. You are giving few drinks which don't cost a lot but you can provide at least 6 to 8 selections. Lobby was clean! get to the elevator and I felt like I am in a submarine. Cool elevators! It is not bright when I walk from elevator to room and like I said Halloween Horror nights. It is something different I experienced. Bathroom was amazing in our room. If you are a light sleeper please don't book this hotel since it is next to the highway. It was ok for me. No complimentary Breakfast provided at this hotel and the breakfast is expensive. There are lot of options for breakfast within 2 miles away if you stay at Lorenzo. If you have a corporate card go for this hotel but with family I would go Hilton or Marriot properties since they have COMP breakfast. This hotel is not cheap so they should expect Guest requires higher satisfaction. This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They have wooden bed railing and it is sharp. Someone will get cut or hurt themselves. If you are a family that will be traveling with kids Please watch out. Pros: Clean hotel and Clean Beds         Laundry facility         Located in Downtown DallasCons: Lack of front desk staff          Answer phone quickly when called from room. Like I said short of staff.          Beer Selection for happy hour should be expanded. Like I said this hotel is             not cheap.          No Complimentary toothpaste, toothbrush or shavers for guest.           No Comp breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>It looks like a gothic hotel from inside and trendy from outside. I feel like I am attending Halloween horror nights. Check in was good but I had to wait 15 minutes. Can you believe only 1 person working at the front desk in this big hotel. Check in person was nice. Cool looking bar with moderate drink prices. Happy hour selection is a joke. You are giving few drinks which don't cost a lot but you can provide at least 6 to 8 selections. Lobby was clean! get to the elevator and I felt like I am in a submarine. Cool elevators! It is not bright when I walk from elevator to room and like I said Halloween Horror nights. It is something different I experienced. Bathroom was amazing in our room. If you are a light sleeper please don't book this hotel since it is next to the highway. It was ok for me. No complimentary Breakfast provided at this hotel and the breakfast is expensive. There are lot of options for breakfast within 2 miles away if you stay at Lorenzo. If you have a corporate card go for this hotel but with family I would go Hilton or Marriot properties since they have COMP breakfast. This hotel is not cheap so they should expect Guest requires higher satisfaction. 
+This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They...It looks like a gothic hotel from inside and trendy from outside. I feel like I am attending Halloween horror nights. Check in was good but I had to wait 15 minutes. Can you believe only 1 person working at the front desk in this big hotel. Check in person was nice. Cool looking bar with moderate drink prices. Happy hour selection is a joke. You are giving few drinks which don't cost a lot but you can provide at least 6 to 8 selections. Lobby was clean! get to the elevator and I felt like I am in a submarine. Cool elevators! It is not bright when I walk from elevator to room and like I said Halloween Horror nights. It is something different I experienced. Bathroom was amazing in our room. If you are a light sleeper please don't book this hotel since it is next to the highway. It was ok for me. No complimentary Breakfast provided at this hotel and the breakfast is expensive. There are lot of options for breakfast within 2 miles away if you stay at Lorenzo. If you have a corporate card go for this hotel but with family I would go Hilton or Marriot properties since they have COMP breakfast. This hotel is not cheap so they should expect Guest requires higher satisfaction. This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They have wooden bed railing and it is sharp. Someone will get cut or hurt themselves. If you are a family that will be traveling with kids Please watch out. Pros: Clean hotel and Clean Beds         Laundry facility         Located in Downtown DallasCons: Lack of front desk staff          Answer phone quickly when called from room. Like I said short of staff.          Beer Selection for happy hour should be expanded. Like I said this hotel is             not cheap.          No Complimentary toothpaste, toothbrush or shavers for guest.           No Comp breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r580661919-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>580661919</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beware!!! It has bugs! </t>
+  </si>
+  <si>
+    <t>I travel for work often and honestly have never checked into a hotel where I’ve actually seen roaches. I arrived pretty late and took a shower, so I didn’t notice anything odd. The hotel had mediocre service and accommodations but it’s not like my expectations were high going in. In the morning I woke up and saw 3 roaches in the room. It just makes me wonder how many more there were. The hotel has kind of a weird funky vibe, which is cool with me. However the bug problem makes me cringe. I will not be going back and will recommend that our company no longer uses this property. Very disappointing experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel for work often and honestly have never checked into a hotel where I’ve actually seen roaches. I arrived pretty late and took a shower, so I didn’t notice anything odd. The hotel had mediocre service and accommodations but it’s not like my expectations were high going in. In the morning I woke up and saw 3 roaches in the room. It just makes me wonder how many more there were. The hotel has kind of a weird funky vibe, which is cool with me. However the bug problem makes me cringe. I will not be going back and will recommend that our company no longer uses this property. Very disappointing experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r577733785-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>577733785</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Fun, quirky hotel!</t>
+  </si>
+  <si>
+    <t>Had a great stay at the Lorenzo had good food( it didn’t really match the hotel though. Outdated menu served best as it could be. Then we took a lyft and our driver was actually the Sous Chef! Chef Alex was great as a driver and great as a cook!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Had a great stay at the Lorenzo had good food( it didn’t really match the hotel though. Outdated menu served best as it could be. Then we took a lyft and our driver was actually the Sous Chef! Chef Alex was great as a driver and great as a cook!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r575753477-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>575753477</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Quirky and Fun</t>
+  </si>
+  <si>
+    <t>Our family stayed for a night with our two teenage children to attend a concert.  I have to admit we were all impressed with the hotel. We were in a double bed corner room that was decorated strange but awesomely cool. The kids loved the decorative pillows, my husband loved the view and I loved the lounge chairs in the room. My son loved the lamp and it was so much fun and allowed us to step out of our comfort zone of normal basic hotel rooms. Beds were comfortable and room was clean. Little noise even for our room that overlooked the pool and highway. I didn’t give four stars because the lack of food choices and huge crowd at the bar made it difficult. There were only two bartenders and it was difficult to get even a beer. We ended up ordering from a pizza place that delivered instead. Everyone was really nice and it was a great experience. We enjoyed it so much my husband and I we are coming back alone for our Anniversary trip in about 3 days. Looking forward to another great room and great experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Guest Relations Manager at Lorenzo Hotel, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Our family stayed for a night with our two teenage children to attend a concert.  I have to admit we were all impressed with the hotel. We were in a double bed corner room that was decorated strange but awesomely cool. The kids loved the decorative pillows, my husband loved the view and I loved the lounge chairs in the room. My son loved the lamp and it was so much fun and allowed us to step out of our comfort zone of normal basic hotel rooms. Beds were comfortable and room was clean. Little noise even for our room that overlooked the pool and highway. I didn’t give four stars because the lack of food choices and huge crowd at the bar made it difficult. There were only two bartenders and it was difficult to get even a beer. We ended up ordering from a pizza place that delivered instead. Everyone was really nice and it was a great experience. We enjoyed it so much my husband and I we are coming back alone for our Anniversary trip in about 3 days. Looking forward to another great room and great experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r575197637-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>575197637</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Fun, Artsy &amp; Spacious</t>
+  </si>
+  <si>
+    <t>Many Pros:  We enjoyed our three-night stay this past weekend at the Lorenzo. The artsy vibe was fun... and our double room was clean, spacious and well-appointed with everything we needed!  The location was a quick walk to the convention center... which was very nice! The peaceful pool area had a beautiful ambience at night and was a nice place to relax after a full day.  The service from the front desk was polite and prompt. Self-parking was easy and convenient... and just steps from the main entrance. (That’s a huge perk downtown!) 
+Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and...Many Pros:  We enjoyed our three-night stay this past weekend at the Lorenzo. The artsy vibe was fun... and our double room was clean, spacious and well-appointed with everything we needed!  The location was a quick walk to the convention center... which was very nice! The peaceful pool area had a beautiful ambience at night and was a nice place to relax after a full day.  The service from the front desk was polite and prompt. Self-parking was easy and convenient... and just steps from the main entrance. (That’s a huge perk downtown!) Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and friendly customers... or anyone for that matter. Very very rude and extremely unprofessional. I will say however, the shrimp and grits were fantastic!! So kudos to the kitchen!! Just might want to replace the horribly immature waiter.  The second time we visited the Lorenzo kitchen, we were seated at 9:40.... never asked for drink order... and didn’t check on us to order until after 10 PM... and then told us the kitchen was closed. Hmmm.  We went directly to the bar to get a drink and the nice brunette female bartender was able to put in an order for hummus just so we could have something to eat after a long day. There really isn’t much around the hotel unless you cross the highway. So, my suggestion to the hotel would be to stay open a little later or hire a few extra servers on nights when you have a sold out hotel. Because the food is delicious and the drinks were great... but service is definitely something that needs to be addressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Many Pros:  We enjoyed our three-night stay this past weekend at the Lorenzo. The artsy vibe was fun... and our double room was clean, spacious and well-appointed with everything we needed!  The location was a quick walk to the convention center... which was very nice! The peaceful pool area had a beautiful ambience at night and was a nice place to relax after a full day.  The service from the front desk was polite and prompt. Self-parking was easy and convenient... and just steps from the main entrance. (That’s a huge perk downtown!) 
+Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and...Many Pros:  We enjoyed our three-night stay this past weekend at the Lorenzo. The artsy vibe was fun... and our double room was clean, spacious and well-appointed with everything we needed!  The location was a quick walk to the convention center... which was very nice! The peaceful pool area had a beautiful ambience at night and was a nice place to relax after a full day.  The service from the front desk was polite and prompt. Self-parking was easy and convenient... and just steps from the main entrance. (That’s a huge perk downtown!) Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and friendly customers... or anyone for that matter. Very very rude and extremely unprofessional. I will say however, the shrimp and grits were fantastic!! So kudos to the kitchen!! Just might want to replace the horribly immature waiter.  The second time we visited the Lorenzo kitchen, we were seated at 9:40.... never asked for drink order... and didn’t check on us to order until after 10 PM... and then told us the kitchen was closed. Hmmm.  We went directly to the bar to get a drink and the nice brunette female bartender was able to put in an order for hummus just so we could have something to eat after a long day. There really isn’t much around the hotel unless you cross the highway. So, my suggestion to the hotel would be to stay open a little later or hire a few extra servers on nights when you have a sold out hotel. Because the food is delicious and the drinks were great... but service is definitely something that needs to be addressed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r571589511-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>571589511</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Funk meets Punk</t>
+  </si>
+  <si>
+    <t>HGTV meets Walking Dead was my first impression of The Lorenzo Hotel. Hands extruding from the wall holding room numbers; life-sized blue men extruding from the sides and roof of the building; empty picture frames and paintbrushes plastered to the ceiling above your bed; eyeballs of various sizes peering and peeking at you; portholes in the elevator allowing you to view companions in other elevators--- it's weird and wacky, but the hotel staff is very nice, the restaurant is okay, and the parking is very handy. Lots of drifters and homeless types around the perimeter and lots of highway noise take away from the creature comforts of a cozy bed and a funky hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>HGTV meets Walking Dead was my first impression of The Lorenzo Hotel. Hands extruding from the wall holding room numbers; life-sized blue men extruding from the sides and roof of the building; empty picture frames and paintbrushes plastered to the ceiling above your bed; eyeballs of various sizes peering and peeking at you; portholes in the elevator allowing you to view companions in other elevators--- it's weird and wacky, but the hotel staff is very nice, the restaurant is okay, and the parking is very handy. Lots of drifters and homeless types around the perimeter and lots of highway noise take away from the creature comforts of a cozy bed and a funky hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r566771460-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>566771460</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best bartenders </t>
+  </si>
+  <si>
+    <t>Had a wonderful visit to Dallas. I think the best part of the hotel was the bartenders. Megan and Victoria took care of everything we needed. They went truly above and beyond. This place is lucky to have them! The food was mediocre, but Megan made up for that with her kindness and her persistence for us to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Had a wonderful visit to Dallas. I think the best part of the hotel was the bartenders. Megan and Victoria took care of everything we needed. They went truly above and beyond. This place is lucky to have them! The food was mediocre, but Megan made up for that with her kindness and her persistence for us to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r566283219-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>566283219</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Uniquely Chic Lorenzo</t>
+  </si>
+  <si>
+    <t>Based on a 2 day stay with my wife, 15 year old daughter and her friend, this was a delightful surprise. The location of the hotel is close to downtown Dallas, yet has great view of the city if you get a room facing west or north. Looking out from our 11th floor room Reunion Tower and the Dallas skyline views were picturesque. The parking area is very safe and under observation by hotel staff. Our check in was easy and staff were very friendly and accommodating, even printing some Six Flags tickets for us. The Lorenzo has attractive color changing LED lighting on the exterior of the building and a lot of abstract-like interior decoration. Music emanates throughout common areas and a delightful fragrance sets a festive mood. Rooms also have art deco and are very clean and spacious. Amenities are as expected with the exception of a microwave. We left the hotel to do stuff and the room was pretty messy from our two 15 year old girls, yet housekeeping staff really did a great job on cleaning and squaring everything away for our return. Thank you!We loved this hotel and would recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Based on a 2 day stay with my wife, 15 year old daughter and her friend, this was a delightful surprise. The location of the hotel is close to downtown Dallas, yet has great view of the city if you get a room facing west or north. Looking out from our 11th floor room Reunion Tower and the Dallas skyline views were picturesque. The parking area is very safe and under observation by hotel staff. Our check in was easy and staff were very friendly and accommodating, even printing some Six Flags tickets for us. The Lorenzo has attractive color changing LED lighting on the exterior of the building and a lot of abstract-like interior decoration. Music emanates throughout common areas and a delightful fragrance sets a festive mood. Rooms also have art deco and are very clean and spacious. Amenities are as expected with the exception of a microwave. We left the hotel to do stuff and the room was pretty messy from our two 15 year old girls, yet housekeeping staff really did a great job on cleaning and squaring everything away for our return. Thank you!We loved this hotel and would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r564411555-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>564411555</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Anniversary Night Out</t>
+  </si>
+  <si>
+    <t>Anniversary night out away from kids.  NYLO hotel was booked so they referred us to Lorenzo.  Really, just perfect.  Little whacky, little classy, extra clean and super cool.  Throws off multiple vibes... just pick the one you like best.  Can’t wait to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anniversary night out away from kids.  NYLO hotel was booked so they referred us to Lorenzo.  Really, just perfect.  Little whacky, little classy, extra clean and super cool.  Throws off multiple vibes... just pick the one you like best.  Can’t wait to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563988573-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563988573</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!</t>
+  </si>
+  <si>
+    <t>What a cool place with an amazing view of downtown! I think we spent most of our time there looking at all of the decor. My husband was fascinated by the elevators and light fixtures. Me, I could never choose what was my favorite. It was quiet and a very pleasant experience. Breakfast the next morning was so good! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>What a cool place with an amazing view of downtown! I think we spent most of our time there looking at all of the decor. My husband was fascinated by the elevators and light fixtures. Me, I could never choose what was my favorite. It was quiet and a very pleasant experience. Breakfast the next morning was so good! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563587421-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563587421</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>We came here for NCA Cheerleading and it ended up being the ideal location to get to and from the convention center with ease!  5 minute walk max.  Area of town is sketchy but most of downtown near the convention center is.  The hotel is clean and the staff nice.  The art is very eclectic and not relaxing but a overall a fun space.  The food was excellent.  Service on the slow side but that's to be expected since we bombarded the hotel with cheerleaders and lots of late nights.  I'd stay here again.  It is a bid loud with highway but that's also to be expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We came here for NCA Cheerleading and it ended up being the ideal location to get to and from the convention center with ease!  5 minute walk max.  Area of town is sketchy but most of downtown near the convention center is.  The hotel is clean and the staff nice.  The art is very eclectic and not relaxing but a overall a fun space.  The food was excellent.  Service on the slow side but that's to be expected since we bombarded the hotel with cheerleaders and lots of late nights.  I'd stay here again.  It is a bid loud with highway but that's also to be expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563170579-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>563170579</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>horrible customer service would never stay here</t>
+  </si>
+  <si>
+    <t>I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the...I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the stroller since Uber will not accommodate us without a car seat.. so we had to be close to the convention center.  I told her that we will just need extra bedding and my girls would just have to make pallets on the floor at this point.  She was very rude and said she would find us somewhere else to stay.. I reiterated that there would not be anywhere in our price range that was close to the convention center... she did not seem to care.  I explained that the website and Expedia let us book with 4 people so this was their problem to figure out and I was not happy about this!  She said the website would not allow up to book.. I tried while I was on the call and it did.. I even put in 4 adults (not just 2 adults and 2 kids) and it still gives us this room (deluxe king) as an option.. even today while writing this review it is giving me the king room as a booking option for 4 adults!  But yet the lady I spoke with (who told me she was the mgr) kept telling me I WAS WRONG!  I was beyond upset and shaken up.  A few minutes later I get the text from Expedia that she had cancelled our room!!!!!!!!!!!!  She basically just left us stranded in Dallas with 2 little girls and a newborn baby.  This is HORRIBLE customer service and her attitude was extremely unprofessional with her tone and attitude.  I had her on speaker (thru car speaker) and the other adults in the car heard her tone and attitude and were appalled with the way she was speaking to me.  Basically she didn't care if we had anywhere to stay for the weekend.  Instead of saying I am sorry it let you book that way.. we will make sure yall are comfortable if you wish to still stay with us.  I even had a friend offer to bring us a blow up mattress.  In the end we had to book a hotel that was 3 miles away and we had to drive back and forth all weekend loading and unloading our baby and stroller and the girls all because this lady was unwilling to assist and accommodate us for an error on yal'ls end and Expedia's end.  I am requesting a response to a mgr other than the woman that was so rude to us.  I also suggest you correct your site so that it does not allow you to book 4 adults in the deluxe king room if you will not accommodate for it and especially if it will not hold it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the...I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the stroller since Uber will not accommodate us without a car seat.. so we had to be close to the convention center.  I told her that we will just need extra bedding and my girls would just have to make pallets on the floor at this point.  She was very rude and said she would find us somewhere else to stay.. I reiterated that there would not be anywhere in our price range that was close to the convention center... she did not seem to care.  I explained that the website and Expedia let us book with 4 people so this was their problem to figure out and I was not happy about this!  She said the website would not allow up to book.. I tried while I was on the call and it did.. I even put in 4 adults (not just 2 adults and 2 kids) and it still gives us this room (deluxe king) as an option.. even today while writing this review it is giving me the king room as a booking option for 4 adults!  But yet the lady I spoke with (who told me she was the mgr) kept telling me I WAS WRONG!  I was beyond upset and shaken up.  A few minutes later I get the text from Expedia that she had cancelled our room!!!!!!!!!!!!  She basically just left us stranded in Dallas with 2 little girls and a newborn baby.  This is HORRIBLE customer service and her attitude was extremely unprofessional with her tone and attitude.  I had her on speaker (thru car speaker) and the other adults in the car heard her tone and attitude and were appalled with the way she was speaking to me.  Basically she didn't care if we had anywhere to stay for the weekend.  Instead of saying I am sorry it let you book that way.. we will make sure yall are comfortable if you wish to still stay with us.  I even had a friend offer to bring us a blow up mattress.  In the end we had to book a hotel that was 3 miles away and we had to drive back and forth all weekend loading and unloading our baby and stroller and the girls all because this lady was unwilling to assist and accommodate us for an error on yal'ls end and Expedia's end.  I am requesting a response to a mgr other than the woman that was so rude to us.  I also suggest you correct your site so that it does not allow you to book 4 adults in the deluxe king room if you will not accommodate for it and especially if it will not hold it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r554864076-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>554864076</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Unique and good</t>
+  </si>
+  <si>
+    <t>We have been more than pleased with the Lorenzo. The decor is weird, young, hip and creative. I keep seeing different interesting touches. The restaurant is good, and the bar is good. The art on the walls and floors is a nice touch MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We have been more than pleased with the Lorenzo. The decor is weird, young, hip and creative. I keep seeing different interesting touches. The restaurant is good, and the bar is good. The art on the walls and floors is a nice touch More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r554274820-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>554274820</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Interesting decor!</t>
+  </si>
+  <si>
+    <t>Loved the art work and interesting decor.The room was very comfortable, although found it very noisy as it's close to a very busy highway.The food in the restaurant was fairly good.I was attending a convention in the Kay Bailey Hutchison Centre, and didn't find it as easily accessible by walking as the website said, but fortunately the convention had arranged a shuttle service, so all was good in the end.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved the art work and interesting decor.The room was very comfortable, although found it very noisy as it's close to a very busy highway.The food in the restaurant was fairly good.I was attending a convention in the Kay Bailey Hutchison Centre, and didn't find it as easily accessible by walking as the website said, but fortunately the convention had arranged a shuttle service, so all was good in the end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r553565947-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>553565947</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>No Hot Water</t>
+  </si>
+  <si>
+    <t>Stayed there with a large group.  The water heater was unable to keep up with demand.   The front desk explained they didn't have it set correctly.  Day 2, improved to warm water.  Other than that, it was a decent stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there with a large group.  The water heater was unable to keep up with demand.   The front desk explained they didn't have it set correctly.  Day 2, improved to warm water.  Other than that, it was a decent stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r552181019-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>552181019</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Don’t do it</t>
+  </si>
+  <si>
+    <t>Just finished a 4 day stay here at the hotel and I would highly recommend something else. If you like a hotel that sounds like it is in the middle of the interstate with lots of road noise, a semi warm shower every morning because the water isn’t hot and glass only covers half the shower to keep the steam in, in the middle of a shady neighborhood with nothing in walking distance, etc., this is your place!  I would not recommend walking to the convention center if you have something at the convention either. This hotel was an old Ramada Inn back in the day that has had some lipstick put on it. The beds were comfortable but you couldn’t sit up in bed or the mattress would slide off the frame. MoreShow less</t>
+  </si>
+  <si>
+    <t>Just finished a 4 day stay here at the hotel and I would highly recommend something else. If you like a hotel that sounds like it is in the middle of the interstate with lots of road noise, a semi warm shower every morning because the water isn’t hot and glass only covers half the shower to keep the steam in, in the middle of a shady neighborhood with nothing in walking distance, etc., this is your place!  I would not recommend walking to the convention center if you have something at the convention either. This hotel was an old Ramada Inn back in the day that has had some lipstick put on it. The beds were comfortable but you couldn’t sit up in bed or the mattress would slide off the frame. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r550416819-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>550416819</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Not worth it</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler for both pleasure and business, so I am not a random traveler writing just to complain.However, I would not stay here again or ever recommend it. First off, the hotel is built right next to the major high way, so there is no peace and quiet. Secondly, the front desk lacks any basic things like tooth paste or tooth brush kits, or a little convenience section to purchase these items. Also, given it’s location, one can’t just run across street to a walgreens. Also, if the noise from the highway doesn’t keep you up, the music from the lobby will.Oh, they also apparently don’t heat the front lobby, hallways, or restaurants, as I was freezing while eating breakfast.There are some positives. The rooms are very large, and the food in restaurant is ok, even if expensive.Do yourself a favor, spend a few extra dollars and stay closer to downtown, at least breakfast is included at the other places.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>I am a frequent traveler for both pleasure and business, so I am not a random traveler writing just to complain.However, I would not stay here again or ever recommend it. First off, the hotel is built right next to the major high way, so there is no peace and quiet. Secondly, the front desk lacks any basic things like tooth paste or tooth brush kits, or a little convenience section to purchase these items. Also, given it’s location, one can’t just run across street to a walgreens. Also, if the noise from the highway doesn’t keep you up, the music from the lobby will.Oh, they also apparently don’t heat the front lobby, hallways, or restaurants, as I was freezing while eating breakfast.There are some positives. The rooms are very large, and the food in restaurant is ok, even if expensive.Do yourself a favor, spend a few extra dollars and stay closer to downtown, at least breakfast is included at the other places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r547842054-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547842054</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Son says "Swanky"</t>
+  </si>
+  <si>
+    <t>(The room was purchased for my son who was turning 23)  He loved the appearance of the room - it was very cool looking and in a great location in Dallas.  It was close to night life.  I asked him if he thought families would like it and he gave me a funny look and said "No!"MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>(The room was purchased for my son who was turning 23)  He loved the appearance of the room - it was very cool looking and in a great location in Dallas.  It was close to night life.  I asked him if he thought families would like it and he gave me a funny look and said "No!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r547221312-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>547221312</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Honeymoon is Over</t>
+  </si>
+  <si>
+    <t>I stayed at the Lorenzo last week for the third time.  I forgave flaws from the earlier visits because it was new and we understood there were to be growing pains, especially with the departure of the person in charge of food.  Also, the price was pretty good for the location.
+But, the honeymoon is over and the management of this place needs to step up.   On the good side, the beds are comfortable and the room is nice, with plenty of outlets and USB hubs for the modern traveler.  Those are good touches.
+Service needs to step up.   How is it that a hotel that positions itself as a stylish, hip, downtown hotel cannot have food available after 10 p.m.?  The bar / restaurant does not serve any food after that time.  There is no in-room dining.  There are not even any vending machines!  I have never encountered something like this except at a roadside motel.  It was astonishing and no one even understood that it was a problem.  They just handed me menus for Chinese and pizza delivery.  
+After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the...I stayed at the Lorenzo last week for the third time.  I forgave flaws from the earlier visits because it was new and we understood there were to be growing pains, especially with the departure of the person in charge of food.  Also, the price was pretty good for the location.But, the honeymoon is over and the management of this place needs to step up.   On the good side, the beds are comfortable and the room is nice, with plenty of outlets and USB hubs for the modern traveler.  Those are good touches.Service needs to step up.   How is it that a hotel that positions itself as a stylish, hip, downtown hotel cannot have food available after 10 p.m.?  The bar / restaurant does not serve any food after that time.  There is no in-room dining.  There are not even any vending machines!  I have never encountered something like this except at a roadside motel.  It was astonishing and no one even understood that it was a problem.  They just handed me menus for Chinese and pizza delivery.  After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the trash and bring fresh towels (as other hotels do when housekeeping is late), I got a terse reply that the window for housekeeping allowed the room to be made up any time before 5:30!  Wow.There are other incidents like this that lead me to believe that management here does not know how to provide good guest service.   It's nice to stay at independent, boutique hotels, but this is the problem.There are several hotels nearby in the same price range. I'll try one of them next.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Owner at Lorenzo Hotel, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Lorenzo last week for the third time.  I forgave flaws from the earlier visits because it was new and we understood there were to be growing pains, especially with the departure of the person in charge of food.  Also, the price was pretty good for the location.
+But, the honeymoon is over and the management of this place needs to step up.   On the good side, the beds are comfortable and the room is nice, with plenty of outlets and USB hubs for the modern traveler.  Those are good touches.
+Service needs to step up.   How is it that a hotel that positions itself as a stylish, hip, downtown hotel cannot have food available after 10 p.m.?  The bar / restaurant does not serve any food after that time.  There is no in-room dining.  There are not even any vending machines!  I have never encountered something like this except at a roadside motel.  It was astonishing and no one even understood that it was a problem.  They just handed me menus for Chinese and pizza delivery.  
+After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the...I stayed at the Lorenzo last week for the third time.  I forgave flaws from the earlier visits because it was new and we understood there were to be growing pains, especially with the departure of the person in charge of food.  Also, the price was pretty good for the location.But, the honeymoon is over and the management of this place needs to step up.   On the good side, the beds are comfortable and the room is nice, with plenty of outlets and USB hubs for the modern traveler.  Those are good touches.Service needs to step up.   How is it that a hotel that positions itself as a stylish, hip, downtown hotel cannot have food available after 10 p.m.?  The bar / restaurant does not serve any food after that time.  There is no in-room dining.  There are not even any vending machines!  I have never encountered something like this except at a roadside motel.  It was astonishing and no one even understood that it was a problem.  They just handed me menus for Chinese and pizza delivery.  After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the trash and bring fresh towels (as other hotels do when housekeeping is late), I got a terse reply that the window for housekeeping allowed the room to be made up any time before 5:30!  Wow.There are other incidents like this that lead me to believe that management here does not know how to provide good guest service.   It's nice to stay at independent, boutique hotels, but this is the problem.There are several hotels nearby in the same price range. I'll try one of them next.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r546982496-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>546982496</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Mr. Gabe at the front desk was great helping us out with the room selection for our family. Hotel is in the heart of downtown Dallas with so many places to visit. This is our second times in Dallas but the first times staying at the Lorenzo Hotel, we would definitely come back bad stay here in the future. Thank you Gabe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mr. Gabe at the front desk was great helping us out with the room selection for our family. Hotel is in the heart of downtown Dallas with so many places to visit. This is our second times in Dallas but the first times staying at the Lorenzo Hotel, we would definitely come back bad stay here in the future. Thank you Gabe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r542232149-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542232149</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I just got back from Dallas.  We stayed at Lorenzo for 4 nights.  I initially booked it because my husband was there for a convention downtown and Lorenzo was only a mile away.  I figured we could walk downtown whenever we wanted.  While my husband did walk 'home' from the convention in the evening, I found that I did not entirely feel comfortable walking by myself and ended up Lyfting.  The hotel is kind of in a dicey area, my Lyft driver told me he was glad I requested a Lyft instead of walking.  I hate to say that because I am very comfortable walking around in most neighborhoods, but more than one local told me it wasn't safe, so take that for what it's worth.Other than the lack of walking the neighborhood, this hotel was perfect!  It is very funky - almost like, trying to be hipster, but whatever.  The room was large, clean and comfortable.  Service was amazing!  I definitely recommend this place.  Enjoy!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I just got back from Dallas.  We stayed at Lorenzo for 4 nights.  I initially booked it because my husband was there for a convention downtown and Lorenzo was only a mile away.  I figured we could walk downtown whenever we wanted.  While my husband did walk 'home' from the convention in the evening, I found that I did not entirely feel comfortable walking by myself and ended up Lyfting.  The hotel is kind of in a dicey area, my Lyft driver told me he was glad I requested a Lyft instead of walking.  I hate to say that because I am very comfortable walking around in most neighborhoods, but more than one local told me it wasn't safe, so take that for what it's worth.Other than the lack of walking the neighborhood, this hotel was perfect!  It is very funky - almost like, trying to be hipster, but whatever.  The room was large, clean and comfortable.  Service was amazing!  I definitely recommend this place.  Enjoy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r542208466-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>542208466</t>
+  </si>
+  <si>
+    <t>Central Dallas Jewel</t>
+  </si>
+  <si>
+    <t>Man where to start? The hotel front desk clerks are so awesome. They went above and beyond for  me and my  group. the hotel beds are comfortable and the sleep was awesome. the bar staff is so Friendly and great. I felt like I was at a family reunion. Lorenzo HOTEL 5* STAR.MoreShow less</t>
+  </si>
+  <si>
+    <t>Man where to start? The hotel front desk clerks are so awesome. They went above and beyond for  me and my  group. the hotel beds are comfortable and the sleep was awesome. the bar staff is so Friendly and great. I felt like I was at a family reunion. Lorenzo HOTEL 5* STAR.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r540710289-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>540710289</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel!</t>
+  </si>
+  <si>
+    <t>The Lorenzo Hotel was an amazing property!  It is ultra modern, super clean and ALL the staff are friendly, helpful and professional.  The rooms are spacious and have all the modern amenities you need when traveling, whether for business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Lorenzo Hotel was an amazing property!  It is ultra modern, super clean and ALL the staff are friendly, helpful and professional.  The rooms are spacious and have all the modern amenities you need when traveling, whether for business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r537235364-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>537235364</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay in downtown Dallas</t>
+  </si>
+  <si>
+    <t>I recommend this hotel. Rooms are nice with many electrical lights/lamps and power/USB connections. Both the hotel cafe and the kolache bar in parking lot are excellent. The gym is very modern and large for a hotel. The outdoor swimming pool area is great and surrounded by art. 12th floor conference rooms offer amazing views of downtown Dallas. It has both valet and self parking, including a very large covered lot with access to the lobby via an elevator. We enjoyed the creative art displayed throughout the hotel. We were here with a group discount $109 plus tax daily rate which was a significant reduction. Even on the 10th floor there is highway noise so if that bothers you, ask for a room away from the freeway. We travel with a white noise maker which covered all that while we slept. Fast WiFi. Good sized Samsung TV in bedroom. Slam bedroom door shut since it won’t lock securely otherwise.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recommend this hotel. Rooms are nice with many electrical lights/lamps and power/USB connections. Both the hotel cafe and the kolache bar in parking lot are excellent. The gym is very modern and large for a hotel. The outdoor swimming pool area is great and surrounded by art. 12th floor conference rooms offer amazing views of downtown Dallas. It has both valet and self parking, including a very large covered lot with access to the lobby via an elevator. We enjoyed the creative art displayed throughout the hotel. We were here with a group discount $109 plus tax daily rate which was a significant reduction. Even on the 10th floor there is highway noise so if that bothers you, ask for a room away from the freeway. We travel with a white noise maker which covered all that while we slept. Fast WiFi. Good sized Samsung TV in bedroom. Slam bedroom door shut since it won’t lock securely otherwise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r536524138-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536524138</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Rooms are super cute. The detail in every aspect of the hotel is incredible. I love the Shakespeare’s carpet in our room. The girls at the bar were friendly and chatty! Loved our stay would def come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms are super cute. The detail in every aspect of the hotel is incredible. I love the Shakespeare’s carpet in our room. The girls at the bar were friendly and chatty! Loved our stay would def come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r536506297-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>536506297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anniversary </t>
+  </si>
+  <si>
+    <t>Great Hotel! Great staff! Just all around awesome weekend for me and my wife’s anniversary. The owners are awesome and definitely and they definitely know how to run a hotel! Lovely corner suite with an awesome view and the bar staff is great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Hotel! Great staff! Just all around awesome weekend for me and my wife’s anniversary. The owners are awesome and definitely and they definitely know how to run a hotel! Lovely corner suite with an awesome view and the bar staff is great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r533435098-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533435098</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>If you get the chance, stay here!</t>
+  </si>
+  <si>
+    <t>It was amazing. I stayed in the deluxe room with three of my friends and from the moment we walked through the doors, they were nothing short of kind and welcoming! The room was clean and the staff were polite and conversational. Keep in mind, we're four college students just coming for the weekend and they were absolutely fantastic. It's a relatively new hotel, (I visited in October 2017 &amp; they have only been open 8 months) but everything seemed to run smoothly. If I had any advice to management, I would say add complimentary toiletries! Apart from that, keep it up! I have high hopes for this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>It was amazing. I stayed in the deluxe room with three of my friends and from the moment we walked through the doors, they were nothing short of kind and welcoming! The room was clean and the staff were polite and conversational. Keep in mind, we're four college students just coming for the weekend and they were absolutely fantastic. It's a relatively new hotel, (I visited in October 2017 &amp; they have only been open 8 months) but everything seemed to run smoothly. If I had any advice to management, I would say add complimentary toiletries! Apart from that, keep it up! I have high hopes for this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r533180761-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>533180761</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Fantastic and unique</t>
+  </si>
+  <si>
+    <t>The staff was exceptional and went above and beyond to accommodate. The rooms are unique and full of local art—so fun! The restaurant served excellent food and we ate there several times during our stay. We loved staying here and definitely will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was exceptional and went above and beyond to accommodate. The rooms are unique and full of local art—so fun! The restaurant served excellent food and we ate there several times during our stay. We loved staying here and definitely will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r532845391-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>532845391</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comically horrible service </t>
+  </si>
+  <si>
+    <t>I really wanted this hotel to be good. It looked artsy and liberal. Unfortunately, nothing could be further from the truth. The staff are unhelpful. The accommodations are honestly not that bad, but are sub standard for a hotel in this price range.  Do yourself a favor and stay at the W, the Omni, or literally anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really wanted this hotel to be good. It looked artsy and liberal. Unfortunately, nothing could be further from the truth. The staff are unhelpful. The accommodations are honestly not that bad, but are sub standard for a hotel in this price range.  Do yourself a favor and stay at the W, the Omni, or literally anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r529718954-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>529718954</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Poor service and questionable business practice</t>
+  </si>
+  <si>
+    <t>I was a guest the last week of September 2017. My company booked a number of rooms for a local conference, spending thousands of dollars. I am an executive of this company. The Lorenzo is a nice hotel, nice rooms, very good food, nice atmosphere. However, I checked out early on a Thursday a.m. and in my rush to go to DFW, I left my new sport coat hanging in the closet. When I returned home and realized my mistake, I called the hotel that evening to ask them to return my coat assuming I would pay shipping, which is fair and reasonable. I spoke with the front desk and with housekeeping, no coat. I called Friday, no coat. I called Monday, no coat. Tuesday, the GM Mr. Nelson called me and left me a voice mail saying they did not find my coat. I called him back, he said they found no coat and essentially implied that I must be mistaken! I am not mistaken. I left my nice new blazer in my room, a room that requires a key to access it. 
+I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here."...I was a guest the last week of September 2017. My company booked a number of rooms for a local conference, spending thousands of dollars. I am an executive of this company. The Lorenzo is a nice hotel, nice rooms, very good food, nice atmosphere. However, I checked out early on a Thursday a.m. and in my rush to go to DFW, I left my new sport coat hanging in the closet. When I returned home and realized my mistake, I called the hotel that evening to ask them to return my coat assuming I would pay shipping, which is fair and reasonable. I spoke with the front desk and with housekeeping, no coat. I called Friday, no coat. I called Monday, no coat. Tuesday, the GM Mr. Nelson called me and left me a voice mail saying they did not find my coat. I called him back, he said they found no coat and essentially implied that I must be mistaken! I am not mistaken. I left my nice new blazer in my room, a room that requires a key to access it. I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here." In other words, tough luck. Gee thanks Mr. Nelson. Great customer service. I'm out $350 for the sport coat = your hotel is out thousands in revenue from my company and the reviews I'm going to write on Yelp, FB, and other sites, as promised.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2017</t>
+  </si>
+  <si>
+    <t>I was a guest the last week of September 2017. My company booked a number of rooms for a local conference, spending thousands of dollars. I am an executive of this company. The Lorenzo is a nice hotel, nice rooms, very good food, nice atmosphere. However, I checked out early on a Thursday a.m. and in my rush to go to DFW, I left my new sport coat hanging in the closet. When I returned home and realized my mistake, I called the hotel that evening to ask them to return my coat assuming I would pay shipping, which is fair and reasonable. I spoke with the front desk and with housekeeping, no coat. I called Friday, no coat. I called Monday, no coat. Tuesday, the GM Mr. Nelson called me and left me a voice mail saying they did not find my coat. I called him back, he said they found no coat and essentially implied that I must be mistaken! I am not mistaken. I left my nice new blazer in my room, a room that requires a key to access it. 
+I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here."...I was a guest the last week of September 2017. My company booked a number of rooms for a local conference, spending thousands of dollars. I am an executive of this company. The Lorenzo is a nice hotel, nice rooms, very good food, nice atmosphere. However, I checked out early on a Thursday a.m. and in my rush to go to DFW, I left my new sport coat hanging in the closet. When I returned home and realized my mistake, I called the hotel that evening to ask them to return my coat assuming I would pay shipping, which is fair and reasonable. I spoke with the front desk and with housekeeping, no coat. I called Friday, no coat. I called Monday, no coat. Tuesday, the GM Mr. Nelson called me and left me a voice mail saying they did not find my coat. I called him back, he said they found no coat and essentially implied that I must be mistaken! I am not mistaken. I left my nice new blazer in my room, a room that requires a key to access it. I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here." In other words, tough luck. Gee thanks Mr. Nelson. Great customer service. I'm out $350 for the sport coat = your hotel is out thousands in revenue from my company and the reviews I'm going to write on Yelp, FB, and other sites, as promised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r529186660-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>529186660</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Sub Par Service for Room Rate</t>
+  </si>
+  <si>
+    <t>It’s unfortunate that this hotel’s owners and management spent more on decor than on service amenities and appropriately training employees in quality service. Three ladies arrived to our double queen room to find ONE water bottle for the three of us staying two nights. We also found TWO disposable coffee cups and TWO plastic disposable water glasses, so not even enough of each to accommodate the maximum room capacity (4 guests). We used those items and they never got replaced by housekeeping. Housekeeping also forgot to bring us wash cloths. Had a tasty breakfast in the hotel “restaurant” and was told by wait staff that they did not have the ability to charge the meal to our room even though there was a charge ticket included in our meal ticket that clearly indicated we could. Upon leaving, we found employees 10 feet from the entrance SMOKING.  And the valet guy calmly WATCHED us drag our suit cases to our car parked 6 feet away from his valet podium and never offered to help us with our luggage as we struggled to load it into the vehicle.  Next time I will stay at a Holiday Inn express and save $115 per night.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>It’s unfortunate that this hotel’s owners and management spent more on decor than on service amenities and appropriately training employees in quality service. Three ladies arrived to our double queen room to find ONE water bottle for the three of us staying two nights. We also found TWO disposable coffee cups and TWO plastic disposable water glasses, so not even enough of each to accommodate the maximum room capacity (4 guests). We used those items and they never got replaced by housekeeping. Housekeeping also forgot to bring us wash cloths. Had a tasty breakfast in the hotel “restaurant” and was told by wait staff that they did not have the ability to charge the meal to our room even though there was a charge ticket included in our meal ticket that clearly indicated we could. Upon leaving, we found employees 10 feet from the entrance SMOKING.  And the valet guy calmly WATCHED us drag our suit cases to our car parked 6 feet away from his valet podium and never offered to help us with our luggage as we struggled to load it into the vehicle.  Next time I will stay at a Holiday Inn express and save $115 per night.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r528539927-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>528539927</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Great Experience !!</t>
+  </si>
+  <si>
+    <t>I read the reviews but still wanted to stay at the Lorenzo. Check in was 5 min and the staff was very friendly. The rooms were clean and very well decorated. I felt like I was at a ZAZA with a really good price. The pool area was good. Explored the bar area but did not have a beverage. Parking was really safe and easy. Keurig coffee makers, fridge, and safe were in the rooms. Nice sheet and lots of plugs for cell phones.  Highly recommend this hotel and I have stayed at many boutique hotels and found this one to be really nice for the price. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read the reviews but still wanted to stay at the Lorenzo. Check in was 5 min and the staff was very friendly. The rooms were clean and very well decorated. I felt like I was at a ZAZA with a really good price. The pool area was good. Explored the bar area but did not have a beverage. Parking was really safe and easy. Keurig coffee makers, fridge, and safe were in the rooms. Nice sheet and lots of plugs for cell phones.  Highly recommend this hotel and I have stayed at many boutique hotels and found this one to be really nice for the price. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r527018671-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>527018671</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Exceptional Customer Service</t>
+  </si>
+  <si>
+    <t>Our group,Texas State Guard were staying at the Lorenzo in support of Hurricane Harvey. Upon arrival we were greeted by Brad the manager who took very good care of us and got our rooms quickly. During our stay Brad and the staff went the extra mile taking care of our needs. The hotel was great. Very clean and very nice rooms. I would recommend to all. If you are one or a group stay at the Lorenzo. YOU WILL NOT BE DISAPPOINTED..... MacMoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Our group,Texas State Guard were staying at the Lorenzo in support of Hurricane Harvey. Upon arrival we were greeted by Brad the manager who took very good care of us and got our rooms quickly. During our stay Brad and the staff went the extra mile taking care of our needs. The hotel was great. Very clean and very nice rooms. I would recommend to all. If you are one or a group stay at the Lorenzo. YOU WILL NOT BE DISAPPOINTED..... MacMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r522615118-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>522615118</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Weak Excuses</t>
+  </si>
+  <si>
+    <t>We were looking forward to staying at the Lorenzo based on the reviews prior to our stay. However, upon arrival (4:40pm) we were met with a long line of other guests trying to check in.As we waited in line, Ms. Lacey Perez informed us the check-in process for a room would be about 2 hours and that we would need to place our names on a waiting list and would be called in order. We asked why? She informed us there were only two housekeeping staff and they were behind in "turning over" rooms.We calmly questioned how unusual it is for a hotel not to be properly staffed on a busy Labor Day Weekend. Ms. Perez apologized and presented a business card that provided us 2 free drinks (valued at $25.00) to wait in the lounge until our name was called.We asked about the policy for canceling our reservation right away. Fortunately, she accepted our frustration for not wanting to wait for 2 hours and canceled our reservation and didn't charge our credit card for penalty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded September 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2017</t>
+  </si>
+  <si>
+    <t>We were looking forward to staying at the Lorenzo based on the reviews prior to our stay. However, upon arrival (4:40pm) we were met with a long line of other guests trying to check in.As we waited in line, Ms. Lacey Perez informed us the check-in process for a room would be about 2 hours and that we would need to place our names on a waiting list and would be called in order. We asked why? She informed us there were only two housekeeping staff and they were behind in "turning over" rooms.We calmly questioned how unusual it is for a hotel not to be properly staffed on a busy Labor Day Weekend. Ms. Perez apologized and presented a business card that provided us 2 free drinks (valued at $25.00) to wait in the lounge until our name was called.We asked about the policy for canceling our reservation right away. Fortunately, she accepted our frustration for not wanting to wait for 2 hours and canceled our reservation and didn't charge our credit card for penalty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r521461250-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>521461250</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Great price for a quirky-boutique style, fun hotel, but good management is lacking.</t>
+  </si>
+  <si>
+    <t>Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas...Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas is worth a few headaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas...Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas is worth a few headaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r514359490-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>514359490</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Trip to Dallas</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this hotel with its outrageous décor for a conference he had to attend. We did not choose this hotel. The room had only 2 small lights and was very difficult to see. We had to ask for room service 3 different times for towels and trash to be emptied. There was nothing in a safe walking distance. The food menu was very expensive. Definitely need to take Uber everywhere. They have no onsite snacks available. There were many other issues, like being locked out of our room one day. The only people that were nice, friendly and helpful were the 2 servers at night time at the bar. They say that there is an outside bar, but it was not opened while we where there. I totally recommend that people stay at the Marriott downtown, it is amazing there.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this hotel with its outrageous décor for a conference he had to attend. We did not choose this hotel. The room had only 2 small lights and was very difficult to see. We had to ask for room service 3 different times for towels and trash to be emptied. There was nothing in a safe walking distance. The food menu was very expensive. Definitely need to take Uber everywhere. They have no onsite snacks available. There were many other issues, like being locked out of our room one day. The only people that were nice, friendly and helpful were the 2 servers at night time at the bar. They say that there is an outside bar, but it was not opened while we where there. I totally recommend that people stay at the Marriott downtown, it is amazing there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r513396520-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>513396520</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Just OK!</t>
+  </si>
+  <si>
+    <t>The Hotel itself is nice however the decor isn't my style.  The surrounding neighborhood is scary the the I-30 highway noise is unacceptable.  One and done on this place so we won't be staying here again. I think there are better choice for a similar price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Hotel itself is nice however the decor isn't my style.  The surrounding neighborhood is scary the the I-30 highway noise is unacceptable.  One and done on this place so we won't be staying here again. I think there are better choice for a similar price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r512854406-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>512854406</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Lorezo Hotel Perfect Staycation</t>
+  </si>
+  <si>
+    <t>Awesome hotel.  The staff was super friendly.  The bar at the pool was so much fun.  The lady bartending did an awesome job of telling the history of the hotel.  The drinks were awesome.  I think I tried the spicy mango margarita and it was yummy.  They were having a pool party the next day but we were unable to attend due to rain but the atmosphere gave you me the vibe of a pool party in Vegas.  We joined in for the happy hour and had the fries and empanadas both good.  The cab wine I chose was a good brand and good quality for the price.  the over all design of the hotel is nothing like I have ever seen before.  Anyone that loves art would appreciate this hotel.  Last but not least the Lacey at the front desk was phenomenal, she made me and my partner feel so much at home.  She as well did a great job of telling the history of the hotel.  She was so friendly and so helpful.  We will be back again soon.  Thanks for an awesome stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome hotel.  The staff was super friendly.  The bar at the pool was so much fun.  The lady bartending did an awesome job of telling the history of the hotel.  The drinks were awesome.  I think I tried the spicy mango margarita and it was yummy.  They were having a pool party the next day but we were unable to attend due to rain but the atmosphere gave you me the vibe of a pool party in Vegas.  We joined in for the happy hour and had the fries and empanadas both good.  The cab wine I chose was a good brand and good quality for the price.  the over all design of the hotel is nothing like I have ever seen before.  Anyone that loves art would appreciate this hotel.  Last but not least the Lacey at the front desk was phenomenal, she made me and my partner feel so much at home.  She as well did a great job of telling the history of the hotel.  She was so friendly and so helpful.  We will be back again soon.  Thanks for an awesome stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r510957172-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>510957172</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Stopped in for the night</t>
+  </si>
+  <si>
+    <t>This newly remodeled building that is now a hotel is pretty eclectic. Lit up from the outside at night you definitely can't miss it. Very nice staff, awesome rooms even though my Keurig coffee machine didn't work. Rooms were extremely cozy and modern with all appliances. Next time I'm in downtown Dallas I will definitely stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>This newly remodeled building that is now a hotel is pretty eclectic. Lit up from the outside at night you definitely can't miss it. Very nice staff, awesome rooms even though my Keurig coffee machine didn't work. Rooms were extremely cozy and modern with all appliances. Next time I'm in downtown Dallas I will definitely stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r503586327-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>503586327</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Sightseeing in Dallas</t>
+  </si>
+  <si>
+    <t>Our room had very modern décor which I loved! Not your same hotel chain. The art décor was cool as well, Room was very neat and clean. Room was very spacious AND OPEN.....Staff very presentable and professional. Hotel had a nice bar with a LIVE band playing the night we stayed.This is an OLD hotel that has been redone. No way was our stay disappointing. I would certainly stay here again......MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Our room had very modern décor which I loved! Not your same hotel chain. The art décor was cool as well, Room was very neat and clean. Room was very spacious AND OPEN.....Staff very presentable and professional. Hotel had a nice bar with a LIVE band playing the night we stayed.This is an OLD hotel that has been redone. No way was our stay disappointing. I would certainly stay here again......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r503550116-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>503550116</t>
+  </si>
+  <si>
+    <t>Unique and Quality</t>
+  </si>
+  <si>
+    <t>This boutique style hotel is close to downtown in an artsy district.  From the minute you drive up and enter the building you know you have not checked into your average hotel.  It offers quality amenities that every upscale hotel offers but in an avant-garde setting.  Just exploring every room and hallway is a treat with artwork and decor that is unexpected.  The staff was highly accommodating, and the rooms very comfortable.  The pool is amazing and the bar and restaurant are first rate.  The unexpected decor of each room gives the feeling you are someplace special.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>This boutique style hotel is close to downtown in an artsy district.  From the minute you drive up and enter the building you know you have not checked into your average hotel.  It offers quality amenities that every upscale hotel offers but in an avant-garde setting.  Just exploring every room and hallway is a treat with artwork and decor that is unexpected.  The staff was highly accommodating, and the rooms very comfortable.  The pool is amazing and the bar and restaurant are first rate.  The unexpected decor of each room gives the feeling you are someplace special.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r498054708-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>498054708</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>interesting hotel</t>
+  </si>
+  <si>
+    <t>not your normal hotel. the rooms are clean and well maintained. it has a gym, outdoor pool, bar and restaurant. the restaurant is open to 10pm and the bar closes around 11pm.  the entrance has a warm and inviting feel. it is unique i enjoyed my stay here  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>not your normal hotel. the rooms are clean and well maintained. it has a gym, outdoor pool, bar and restaurant. the restaurant is open to 10pm and the bar closes around 11pm.  the entrance has a warm and inviting feel. it is unique i enjoyed my stay here  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r497951886-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>497951886</t>
+  </si>
+  <si>
+    <t>A big-city property with glaringly small-town problems</t>
+  </si>
+  <si>
+    <t>As a Dallas native (who's only there infrequently these days), I still remember the old days when the building that houses the Lorenzo was a Ramada Inn, followed by the rather lengthy period of time (at least a decade) when the entire building was shuttered after the surrounding Cedars area on the south side of downtown went into decline. The area's seen a revival in recent years, however, including the opening of a branch of the legendary Austin-based Alamo Drafthouse Cinema chain nearby, so I decided to check it out during a short layover in Dallas. Regrettably, it wasn't a pleasant experience.
+The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby....As a Dallas native (who's only there infrequently these days), I still remember the old days when the building that houses the Lorenzo was a Ramada Inn, followed by the rather lengthy period of time (at least a decade) when the entire building was shuttered after the surrounding Cedars area on the south side of downtown went into decline. The area's seen a revival in recent years, however, including the opening of a branch of the legendary Austin-based Alamo Drafthouse Cinema chain nearby, so I decided to check it out during a short layover in Dallas. Regrettably, it wasn't a pleasant experience.The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby.Another problem specific to its location: while Cedars may be on the rise, the immediate vicinity of the hotel isn't there yet ... which segues into another problem, namely the existence of a much nicer *and* less expensive hotel a few blocks away (the NYLO). Further, the NYLO isn't next to a freeway; has multiple nightlife options in its immediate vicinity; is within walking distance of the Alamo Drafthouse; and certainly *feels* much safer, given the presence of a large Dallas Police Dep't station across the street. (FWIW, the NYLO is also a two-minute walk to a station on the city's DART light-rail line.) Aside from the Lorenzo being closer to the downtown convention center (a fairly easy walk, assuming it's during daytime hours), I'm hard-pressed to come up with a reason to pick the Lorenzo over the NYLO. (Okay, I thought of one: the NYLO's rooftop pool deck can get rowdy on weekends.)Finally, I realize interior design is subjective, but the Lorenzo employs practically every boutique-hotel cliche in the book. The rooms contain multiple brazen knockoffs of Philippe Starck designs (chairs, lamps, etc.) - which might be okay if they were at least *recent* knockoffs, but they're ones he designed 20 years ago now. The public areas are somewhat better, though I'm unsure whether the Arne Jacobsen Egg chair and Hans Wegner "Papa Bear" chair in the lobby are legit or also knockoffs. Everything else I saw -- from faux-Warhols in the hallway to blown-up photographs employed as wallpaper and "tree stump" side tables -- was a mish-mash of unoriginal design aesthetics devised elsewhere much more effectively.I hate to see it when hotel operators make such a plethora of mistakes, but in this case we're talking about a property that as of this writing has a massive typo on its website's home page (the "Indulge" header is misspelled as "Induldge"). Moreover, its parent company is one that until fairly recently focused solely on budget chain like EconoLodge and Rodeway Inn. Much like a Dallas woman trying - and failing - to look dolled up with a Louis Vuitton purse and big blonde hair, the Lorenzo's roots are showing.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a Dallas native (who's only there infrequently these days), I still remember the old days when the building that houses the Lorenzo was a Ramada Inn, followed by the rather lengthy period of time (at least a decade) when the entire building was shuttered after the surrounding Cedars area on the south side of downtown went into decline. The area's seen a revival in recent years, however, including the opening of a branch of the legendary Austin-based Alamo Drafthouse Cinema chain nearby, so I decided to check it out during a short layover in Dallas. Regrettably, it wasn't a pleasant experience.
+The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby....As a Dallas native (who's only there infrequently these days), I still remember the old days when the building that houses the Lorenzo was a Ramada Inn, followed by the rather lengthy period of time (at least a decade) when the entire building was shuttered after the surrounding Cedars area on the south side of downtown went into decline. The area's seen a revival in recent years, however, including the opening of a branch of the legendary Austin-based Alamo Drafthouse Cinema chain nearby, so I decided to check it out during a short layover in Dallas. Regrettably, it wasn't a pleasant experience.The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby.Another problem specific to its location: while Cedars may be on the rise, the immediate vicinity of the hotel isn't there yet ... which segues into another problem, namely the existence of a much nicer *and* less expensive hotel a few blocks away (the NYLO). Further, the NYLO isn't next to a freeway; has multiple nightlife options in its immediate vicinity; is within walking distance of the Alamo Drafthouse; and certainly *feels* much safer, given the presence of a large Dallas Police Dep't station across the street. (FWIW, the NYLO is also a two-minute walk to a station on the city's DART light-rail line.) Aside from the Lorenzo being closer to the downtown convention center (a fairly easy walk, assuming it's during daytime hours), I'm hard-pressed to come up with a reason to pick the Lorenzo over the NYLO. (Okay, I thought of one: the NYLO's rooftop pool deck can get rowdy on weekends.)Finally, I realize interior design is subjective, but the Lorenzo employs practically every boutique-hotel cliche in the book. The rooms contain multiple brazen knockoffs of Philippe Starck designs (chairs, lamps, etc.) - which might be okay if they were at least *recent* knockoffs, but they're ones he designed 20 years ago now. The public areas are somewhat better, though I'm unsure whether the Arne Jacobsen Egg chair and Hans Wegner "Papa Bear" chair in the lobby are legit or also knockoffs. Everything else I saw -- from faux-Warhols in the hallway to blown-up photographs employed as wallpaper and "tree stump" side tables -- was a mish-mash of unoriginal design aesthetics devised elsewhere much more effectively.I hate to see it when hotel operators make such a plethora of mistakes, but in this case we're talking about a property that as of this writing has a massive typo on its website's home page (the "Indulge" header is misspelled as "Induldge"). Moreover, its parent company is one that until fairly recently focused solely on budget chain like EconoLodge and Rodeway Inn. Much like a Dallas woman trying - and failing - to look dolled up with a Louis Vuitton purse and big blonde hair, the Lorenzo's roots are showing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r496300084-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>496300084</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Very cool boutique hotel!!</t>
+  </si>
+  <si>
+    <t>Stayed at the Lorenzo Dallas for three days last week – very cool hotel. Very easy check in and the staff could not have been nicer. It is a newly renovated hotel with very nice rooms and a comfortable bar area. Great pool area with an outdoor bar. Very cool lighting through the facility makes this place snap. Novel option for breakfast – in addition to the in-house restaurants, they had renovated containers outside for coffee, pastries, etc. – a very neat concept.  Close to downtown – 5 minute ride. This is a transitioning area so I would be mindful if walking to any local spots. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed at the Lorenzo Dallas for three days last week – very cool hotel. Very easy check in and the staff could not have been nicer. It is a newly renovated hotel with very nice rooms and a comfortable bar area. Great pool area with an outdoor bar. Very cool lighting through the facility makes this place snap. Novel option for breakfast – in addition to the in-house restaurants, they had renovated containers outside for coffee, pastries, etc. – a very neat concept.  Close to downtown – 5 minute ride. This is a transitioning area so I would be mindful if walking to any local spots. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r491395920-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>491395920</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Housekeeping staff gave better customer service than the management</t>
+  </si>
+  <si>
+    <t>What a huge disappointment this hotel was, mainly because the management doesnt know what "hospitality" is. I visited this hotel to see it in person before I decided to book it.  It looks great, eclectic and artsy.  I visited on a Sat night at 1030, and the pool had a lively scene with lots of people hanging out.  However, when we were there, the pool closed at 9pm ("as per policy" management told us).  It had rained from 6-9, so we couldnt enjoy the pool. When it stopped raining at 9, and we wanted to sit by the pool and enjoy a very nice view of Downtown Dallas, management wouldnt allow us to go to the only outdoor seating the hotel has to offer.  And this hotel is not in a neighborhood where you can walk to anything interesting. Its in a sketchy neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a huge disappointment this hotel was, mainly because the management doesnt know what "hospitality" is. I visited this hotel to see it in person before I decided to book it.  It looks great, eclectic and artsy.  I visited on a Sat night at 1030, and the pool had a lively scene with lots of people hanging out.  However, when we were there, the pool closed at 9pm ("as per policy" management told us).  It had rained from 6-9, so we couldnt enjoy the pool. When it stopped raining at 9, and we wanted to sit by the pool and enjoy a very nice view of Downtown Dallas, management wouldnt allow us to go to the only outdoor seating the hotel has to offer.  And this hotel is not in a neighborhood where you can walk to anything interesting. Its in a sketchy neighborhood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r491232482-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>491232482</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Newly revonated and amazingky designed. From the entry driveway, to every little corner of this amazing Boutique hotel was carefully thought off. The staff is amazingly welcomed and the food equally engaging.My congratulations to the staff anf management team for such great care and delightful experience.A must place to stay, or even to visit and enjoy its eclectic design.MoreShow less</t>
+  </si>
+  <si>
+    <t>Newly revonated and amazingky designed. From the entry driveway, to every little corner of this amazing Boutique hotel was carefully thought off. The staff is amazingly welcomed and the food equally engaging.My congratulations to the staff anf management team for such great care and delightful experience.A must place to stay, or even to visit and enjoy its eclectic design.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r490489994-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>490489994</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Great views, trendy decor, super-friendly/helpful staff (Thanks Gabe!) and all around fantastic place to stay! Lorenzo is centrally located with spacious rooms and cute touches-loved the gnome pillows. Location makes it great for a stay-cation!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great views, trendy decor, super-friendly/helpful staff (Thanks Gabe!) and all around fantastic place to stay! Lorenzo is centrally located with spacious rooms and cute touches-loved the gnome pillows. Location makes it great for a stay-cation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r486397974-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>486397974</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>This place is fantastic!</t>
+  </si>
+  <si>
+    <t>I cannot begin to describe how wonderful this hotel and all of the staff are at the Lorenzo Hotel. The entire hotel is gorgeous and is so fun.  The rooms are large and comfortable with amazing views.  The food at the restaurants is great.  Sitting at Toast and looking at the spectacular view was a great way to start the day! They went above and beyond any expectations to make our stay absolutely perfect.  I cannot say enough wonderful things about this hotel.  If you want a relaxing, fun, unique, comfortable stay in Dallas that is truly a steal at the price, Lorenzo Hotel is the place to go.  We did not want to leave!  We cannot wait to come back and this will be the only place we stay from now on in Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>I cannot begin to describe how wonderful this hotel and all of the staff are at the Lorenzo Hotel. The entire hotel is gorgeous and is so fun.  The rooms are large and comfortable with amazing views.  The food at the restaurants is great.  Sitting at Toast and looking at the spectacular view was a great way to start the day! They went above and beyond any expectations to make our stay absolutely perfect.  I cannot say enough wonderful things about this hotel.  If you want a relaxing, fun, unique, comfortable stay in Dallas that is truly a steal at the price, Lorenzo Hotel is the place to go.  We did not want to leave!  We cannot wait to come back and this will be the only place we stay from now on in Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r480760261-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>480760261</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>What a fun hotel!!  Loved our stay!</t>
+  </si>
+  <si>
+    <t>This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those...This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those 2 things, this is a great hotel with a very trendy modern style to it and we would definitely stay there again next time we are in the area!! ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those...This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those 2 things, this is a great hotel with a very trendy modern style to it and we would definitely stay there again next time we are in the area!! ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r476267898-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>476267898</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>'Fun, fresh and artsy' but choose room carefully.</t>
+  </si>
+  <si>
+    <t>It’s always exciting to see a old hotel come back to life and the revitalization of the 1972-built Ramada Inn on South Akard is one such redevelopment.
+Now rebranded as Lorenzo, the vacant structure was extensively reworked to the tune of $35m to make a funky new art hotel so much in vogue in neighborhoods around the world undergoing urban renewal. ‘Fun, fresh and artsy’ I’m told.
+Dallas locals will recall a rather unremarkable 12-storey building that ultimately languished in the declining ‘Southside/Cedars’ precinct right across the expressway from the massive convention center. Now the hotel is a reflection of the regrowth in that area which includes the new Four Corners Brewery
+Externally, the incorporation of the tiny balconies into room space is the first thing anyone will notice about the refreshed hotel. However on the NE and NW facing rooms, noise abatement from the 9-lane expressway is not entirely successful, so you may have to forgo the view of the cityscape and take a south-facing room. A corner room if you can. Tip: keep the a/c on low to help mask any exterior noise.
+The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the...It’s always exciting to see a old hotel come back to life and the revitalization of the 1972-built Ramada Inn on South Akard is one such redevelopment.Now rebranded as Lorenzo, the vacant structure was extensively reworked to the tune of $35m to make a funky new art hotel so much in vogue in neighborhoods around the world undergoing urban renewal. ‘Fun, fresh and artsy’ I’m told.Dallas locals will recall a rather unremarkable 12-storey building that ultimately languished in the declining ‘Southside/Cedars’ precinct right across the expressway from the massive convention center. Now the hotel is a reflection of the regrowth in that area which includes the new Four Corners BreweryExternally, the incorporation of the tiny balconies into room space is the first thing anyone will notice about the refreshed hotel. However on the NE and NW facing rooms, noise abatement from the 9-lane expressway is not entirely successful, so you may have to forgo the view of the cityscape and take a south-facing room. A corner room if you can. Tip: keep the a/c on low to help mask any exterior noise.The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the sense of roominess and space.The 12th floor is the new ‘Toast’ restaurant and adjoining function room. The aspect from both is superb and I enjoyed a tasty breakfast from the buffet. Perhaps a little more variety would be nice, but there’s all the staple items like bagels, bacon, cereals, eggs and fresh fruit. I peeked into the kitchen too and it’s all brand new and shiny stainless steel everywhere.Downstairs is a really cool bar with great cocktails (try an Old Fashioned with JR Ewing Bourbon). There was a small but lively crowd still swinging at midnight when I checked in. Outside next to the car park is Kolache Korner, made up of repurposed shipping containers where you can enjoy an outdoor breakfast, daytime snack or quick ‘grab and go’ meal.By the time you read this, the pool should be fully opened and I’m told it will be available to day use guests as well. It’s out the back entrance, next to the gym (with brand new gear).In summary, the Lorenzo is a welcome addition to this neighborhood revival and is keenly priced compared to some of the upmarket properties nearby (eg Omni, Westin et al). Great option for visitors attending the convention center with a relaxed and informal feel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded April 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2017</t>
+  </si>
+  <si>
+    <t>It’s always exciting to see a old hotel come back to life and the revitalization of the 1972-built Ramada Inn on South Akard is one such redevelopment.
+Now rebranded as Lorenzo, the vacant structure was extensively reworked to the tune of $35m to make a funky new art hotel so much in vogue in neighborhoods around the world undergoing urban renewal. ‘Fun, fresh and artsy’ I’m told.
+Dallas locals will recall a rather unremarkable 12-storey building that ultimately languished in the declining ‘Southside/Cedars’ precinct right across the expressway from the massive convention center. Now the hotel is a reflection of the regrowth in that area which includes the new Four Corners Brewery
+Externally, the incorporation of the tiny balconies into room space is the first thing anyone will notice about the refreshed hotel. However on the NE and NW facing rooms, noise abatement from the 9-lane expressway is not entirely successful, so you may have to forgo the view of the cityscape and take a south-facing room. A corner room if you can. Tip: keep the a/c on low to help mask any exterior noise.
+The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the...It’s always exciting to see a old hotel come back to life and the revitalization of the 1972-built Ramada Inn on South Akard is one such redevelopment.Now rebranded as Lorenzo, the vacant structure was extensively reworked to the tune of $35m to make a funky new art hotel so much in vogue in neighborhoods around the world undergoing urban renewal. ‘Fun, fresh and artsy’ I’m told.Dallas locals will recall a rather unremarkable 12-storey building that ultimately languished in the declining ‘Southside/Cedars’ precinct right across the expressway from the massive convention center. Now the hotel is a reflection of the regrowth in that area which includes the new Four Corners BreweryExternally, the incorporation of the tiny balconies into room space is the first thing anyone will notice about the refreshed hotel. However on the NE and NW facing rooms, noise abatement from the 9-lane expressway is not entirely successful, so you may have to forgo the view of the cityscape and take a south-facing room. A corner room if you can. Tip: keep the a/c on low to help mask any exterior noise.The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the sense of roominess and space.The 12th floor is the new ‘Toast’ restaurant and adjoining function room. The aspect from both is superb and I enjoyed a tasty breakfast from the buffet. Perhaps a little more variety would be nice, but there’s all the staple items like bagels, bacon, cereals, eggs and fresh fruit. I peeked into the kitchen too and it’s all brand new and shiny stainless steel everywhere.Downstairs is a really cool bar with great cocktails (try an Old Fashioned with JR Ewing Bourbon). There was a small but lively crowd still swinging at midnight when I checked in. Outside next to the car park is Kolache Korner, made up of repurposed shipping containers where you can enjoy an outdoor breakfast, daytime snack or quick ‘grab and go’ meal.By the time you read this, the pool should be fully opened and I’m told it will be available to day use guests as well. It’s out the back entrance, next to the gym (with brand new gear).In summary, the Lorenzo is a welcome addition to this neighborhood revival and is keenly priced compared to some of the upmarket properties nearby (eg Omni, Westin et al). Great option for visitors attending the convention center with a relaxed and informal feel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r474954108-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>474954108</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Wonderful time at the Lorenzo!</t>
+  </si>
+  <si>
+    <t>I planned my company sales meeting at this hotel, without seeing the property first, but we were in a pinch and had to grab a hotel for all of our guests, and so I relied heavily on the recommendation that was given to me. Let me tell you, this hotel exceeded all of my expectations. From the staff to the rooms and food, it was the best sales meeting we have had! The hotel was completely renovated, and is absolutely beautiful inside and out. I, and the rest of the company, loved the rooms.. the décor is stunning! The staff was more than accommodating and jumped at any request anyone had. As a planner, you often find it difficult to work with certain hotels, but not this one. The entire staff was extremely friendly, efficient and overall exceptional to work with. The food, which was my favorite part, was delicious! We pretty much had every meal catered by the hotel, and it was all wonderfully presented and I did not hear one complaint from any of our guests..... Well, maybe that they were always stuffed. We had a formal dinner that was to die for! If you are planning a meeting, I highly recommend this lavish hotel. They are simply amazing to work with!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>I planned my company sales meeting at this hotel, without seeing the property first, but we were in a pinch and had to grab a hotel for all of our guests, and so I relied heavily on the recommendation that was given to me. Let me tell you, this hotel exceeded all of my expectations. From the staff to the rooms and food, it was the best sales meeting we have had! The hotel was completely renovated, and is absolutely beautiful inside and out. I, and the rest of the company, loved the rooms.. the décor is stunning! The staff was more than accommodating and jumped at any request anyone had. As a planner, you often find it difficult to work with certain hotels, but not this one. The entire staff was extremely friendly, efficient and overall exceptional to work with. The food, which was my favorite part, was delicious! We pretty much had every meal catered by the hotel, and it was all wonderfully presented and I did not hear one complaint from any of our guests..... Well, maybe that they were always stuffed. We had a formal dinner that was to die for! If you are planning a meeting, I highly recommend this lavish hotel. They are simply amazing to work with!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r471529990-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>471529990</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>The Best Hotel I have stayed at in Dallas!</t>
+  </si>
+  <si>
+    <t>This hotel far surpasses anywhere I have stayed in Dallas, and I frequent Dallas hotels yearly! It is extremely unique and you won't find anything like it! The front desk staff and the bar/restaurant staff were the best part of our stay. The food in Lorenzo Kitchen is fantastic, highly recommend the Shrimp &amp; Grits. Cocktail menu is great, they have some traditional cocktails and some very unique cocktails that fit their unique style. The beds are extremely comfortable and the rooms in general are very cozy. It is not a chain, so that was very nice, you don't have to deal with all the sales pitches. I honestly don't know how anyone has anything bad to say about this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>This hotel far surpasses anywhere I have stayed in Dallas, and I frequent Dallas hotels yearly! It is extremely unique and you won't find anything like it! The front desk staff and the bar/restaurant staff were the best part of our stay. The food in Lorenzo Kitchen is fantastic, highly recommend the Shrimp &amp; Grits. Cocktail menu is great, they have some traditional cocktails and some very unique cocktails that fit their unique style. The beds are extremely comfortable and the rooms in general are very cozy. It is not a chain, so that was very nice, you don't have to deal with all the sales pitches. I honestly don't know how anyone has anything bad to say about this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r468156847-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>468156847</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel and excellent staff.  Perfect for couples, road warriors,..</t>
+  </si>
+  <si>
+    <t>The hotel is beautifully decorated and staffed by very professional and enthusiastic employees.  Planned on 3 days and ended staying for a week and was offered excellent rates by mgmt.   Its a new hotel and not part of a mega-chain, which I like.  No room service yet but dozens of delivery options thanks to UberEats.  Their restaurant on the 12th floor serves breakfast and dinner and does a great job packing to go orders to take to your room.  The bar has a hipster look and feel and two thumbs up on the nod to The Bard (William Shakespeare) throughout the hotel including carpeting with words from his famous works.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is beautifully decorated and staffed by very professional and enthusiastic employees.  Planned on 3 days and ended staying for a week and was offered excellent rates by mgmt.   Its a new hotel and not part of a mega-chain, which I like.  No room service yet but dozens of delivery options thanks to UberEats.  Their restaurant on the 12th floor serves breakfast and dinner and does a great job packing to go orders to take to your room.  The bar has a hipster look and feel and two thumbs up on the nod to The Bard (William Shakespeare) throughout the hotel including carpeting with words from his famous works.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r466567396-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>466567396</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>They still owe me $411</t>
+  </si>
+  <si>
+    <t>I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and...I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and e-mails and that's completely unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and...I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and e-mails and that's completely unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r464343740-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464343740</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Unique Boutique!</t>
+  </si>
+  <si>
+    <t>What a find! I stayed here for 2 nights this past week because of the proximity to the convention center and am so glad I did. Right when you pull up you can see that the hotel decor and vibe is very different from the norm.The guest rooms are uniquely designed with local art. My friend and I had dinner in Lorenzo Kitchen one night and the chicken &amp; dumplings were to die for. The staff is some of the best I've encountered. Unfortunately, the pool area wasn't open yet, but will be in a few weeks and looks like it is sure to be a hot spot!  I can't wait to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded March 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2017</t>
+  </si>
+  <si>
+    <t>What a find! I stayed here for 2 nights this past week because of the proximity to the convention center and am so glad I did. Right when you pull up you can see that the hotel decor and vibe is very different from the norm.The guest rooms are uniquely designed with local art. My friend and I had dinner in Lorenzo Kitchen one night and the chicken &amp; dumplings were to die for. The staff is some of the best I've encountered. Unfortunately, the pool area wasn't open yet, but will be in a few weeks and looks like it is sure to be a hot spot!  I can't wait to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r464341738-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464341738</t>
+  </si>
+  <si>
+    <t>It's a great place to stay in Dallas!</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Lorenzo just after they opened and loved it!  Easy parking, easy access to downtown and the freeways, spacious room and very comfortable bed.  The staff was so friendly.  I would recommend it for anyone traveling to Dallas for a quick weekend or a week of business.  You'll love it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel Lorenzo just after they opened and loved it!  Easy parking, easy access to downtown and the freeways, spacious room and very comfortable bed.  The staff was so friendly.  I would recommend it for anyone traveling to Dallas for a quick weekend or a week of business.  You'll love it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r462136754-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>462136754</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Bad experience and first theft from a hotel staff</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at...My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at any of them other than this hotel. I really do feel sorry for the staff (except for the one that stole from my family), as most were very nice and apologetic for all of the problems we encountered here. One last thing- not a good neighborhood. One block away was a vandalized car that had all windows broken out and been stripped. Two blocks away was a "skid row" type are where within a one block area had 25-35 people sleeping on the sidewalk. so- you do not want to just "walk around" from this hotel either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, Manager at Lorenzo Hotel, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at...My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at any of them other than this hotel. I really do feel sorry for the staff (except for the one that stole from my family), as most were very nice and apologetic for all of the problems we encountered here. One last thing- not a good neighborhood. One block away was a vandalized car that had all windows broken out and been stripped. Two blocks away was a "skid row" type are where within a one block area had 25-35 people sleeping on the sidewalk. so- you do not want to just "walk around" from this hotel either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r461730666-Lorenzo_Hotel-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>461730666</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Art Meets Function</t>
+  </si>
+  <si>
+    <t>This was formally the Plaza in a bad neighborhood and now a new artsy hotel in a new upcoming neighborhood. The service was off the hook as this was their very first weeks of opening.  Nice size lobby and brand new rooms.  The room was decorated right out of an art studio with cool quirky lamps gaudy chairs and comfortable beds.  Speaking about the bed, look out for the extended platform bed corners that will crack your shins.  The bathroom was very nice but a difficult way you turn the water on for the shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lorenzo1011, General Manager at Lorenzo Hotel, responded to this reviewResponded February 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2017</t>
+  </si>
+  <si>
+    <t>This was formally the Plaza in a bad neighborhood and now a new artsy hotel in a new upcoming neighborhood. The service was off the hook as this was their very first weeks of opening.  Nice size lobby and brand new rooms.  The room was decorated right out of an art studio with cool quirky lamps gaudy chairs and comfortable beds.  Speaking about the bed, look out for the extended platform bed corners that will crack your shins.  The bathroom was very nice but a difficult way you turn the water on for the shower.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1978,3968 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>78</v>
+      </c>
+      <c r="X7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>117</v>
+      </c>
+      <c r="X15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" t="s">
+        <v>189</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23" t="s">
+        <v>198</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>207</v>
+      </c>
+      <c r="X24" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>144</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>199</v>
+      </c>
+      <c r="X25" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>221</v>
+      </c>
+      <c r="X26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s">
+        <v>227</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>117</v>
+      </c>
+      <c r="X29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>117</v>
+      </c>
+      <c r="X30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>117</v>
+      </c>
+      <c r="X31" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" t="s">
+        <v>198</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>117</v>
+      </c>
+      <c r="X32" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>117</v>
+      </c>
+      <c r="X33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>117</v>
+      </c>
+      <c r="X34" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>276</v>
+      </c>
+      <c r="X35" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>198</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>198</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>284</v>
+      </c>
+      <c r="X37" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>298</v>
+      </c>
+      <c r="X38" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>275</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>306</v>
+      </c>
+      <c r="X39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>275</v>
+      </c>
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>306</v>
+      </c>
+      <c r="X40" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" t="s">
+        <v>317</v>
+      </c>
+      <c r="K41" t="s">
+        <v>318</v>
+      </c>
+      <c r="L41" t="s">
+        <v>319</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>320</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>321</v>
+      </c>
+      <c r="X41" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>321</v>
+      </c>
+      <c r="X42" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>332</v>
+      </c>
+      <c r="K43" t="s">
+        <v>333</v>
+      </c>
+      <c r="L43" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>320</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>321</v>
+      </c>
+      <c r="X43" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>336</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>337</v>
+      </c>
+      <c r="J44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K44" t="s">
+        <v>339</v>
+      </c>
+      <c r="L44" t="s">
+        <v>340</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>320</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>341</v>
+      </c>
+      <c r="X44" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>345</v>
+      </c>
+      <c r="J45" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" t="s">
+        <v>347</v>
+      </c>
+      <c r="L45" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>349</v>
+      </c>
+      <c r="O45" t="s">
+        <v>198</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>341</v>
+      </c>
+      <c r="X45" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>352</v>
+      </c>
+      <c r="J46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K46" t="s">
+        <v>353</v>
+      </c>
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>355</v>
+      </c>
+      <c r="O46" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>356</v>
+      </c>
+      <c r="X46" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>360</v>
+      </c>
+      <c r="J47" t="s">
+        <v>361</v>
+      </c>
+      <c r="K47" t="s">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s">
+        <v>363</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>364</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>356</v>
+      </c>
+      <c r="X47" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>367</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>349</v>
+      </c>
+      <c r="O48" t="s">
+        <v>189</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>356</v>
+      </c>
+      <c r="X48" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>355</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>356</v>
+      </c>
+      <c r="X49" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>355</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>356</v>
+      </c>
+      <c r="X50" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>385</v>
+      </c>
+      <c r="L51" t="s">
+        <v>386</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>356</v>
+      </c>
+      <c r="X51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>389</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+      <c r="K52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s">
+        <v>392</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>355</v>
+      </c>
+      <c r="O52" t="s">
+        <v>189</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>356</v>
+      </c>
+      <c r="X52" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>394</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>396</v>
+      </c>
+      <c r="K53" t="s">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s">
+        <v>398</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>356</v>
+      </c>
+      <c r="X53" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>400</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>401</v>
+      </c>
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>403</v>
+      </c>
+      <c r="L54" t="s">
+        <v>404</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" t="s">
+        <v>69</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>406</v>
+      </c>
+      <c r="X54" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>409</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>410</v>
+      </c>
+      <c r="J55" t="s">
+        <v>411</v>
+      </c>
+      <c r="K55" t="s">
+        <v>412</v>
+      </c>
+      <c r="L55" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>405</v>
+      </c>
+      <c r="O55" t="s">
+        <v>189</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>414</v>
+      </c>
+      <c r="X55" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" t="s">
+        <v>419</v>
+      </c>
+      <c r="K56" t="s">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s">
+        <v>421</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>423</v>
+      </c>
+      <c r="X56" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>427</v>
+      </c>
+      <c r="J57" t="s">
+        <v>428</v>
+      </c>
+      <c r="K57" t="s">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s">
+        <v>430</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>431</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>432</v>
+      </c>
+      <c r="X57" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" t="s">
+        <v>438</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>440</v>
+      </c>
+      <c r="X58" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>444</v>
+      </c>
+      <c r="J59" t="s">
+        <v>445</v>
+      </c>
+      <c r="K59" t="s">
+        <v>446</v>
+      </c>
+      <c r="L59" t="s">
+        <v>447</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" t="s">
+        <v>69</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>448</v>
+      </c>
+      <c r="X59" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>451</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>452</v>
+      </c>
+      <c r="J60" t="s">
+        <v>453</v>
+      </c>
+      <c r="K60" t="s">
+        <v>454</v>
+      </c>
+      <c r="L60" t="s">
+        <v>455</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>431</v>
+      </c>
+      <c r="O60" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>456</v>
+      </c>
+      <c r="X60" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>460</v>
+      </c>
+      <c r="J61" t="s">
+        <v>453</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O61" t="s">
+        <v>69</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>456</v>
+      </c>
+      <c r="X61" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>464</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>465</v>
+      </c>
+      <c r="J62" t="s">
+        <v>466</v>
+      </c>
+      <c r="K62" t="s">
+        <v>467</v>
+      </c>
+      <c r="L62" t="s">
+        <v>468</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>422</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>469</v>
+      </c>
+      <c r="X62" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>16291</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>473</v>
+      </c>
+      <c r="J63" t="s">
+        <v>474</v>
+      </c>
+      <c r="K63" t="s">
+        <v>475</v>
+      </c>
+      <c r="L63" t="s">
+        <v>476</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>69</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>477</v>
+      </c>
+      <c r="X63" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_522.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_522.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>thompsonhazel99</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>kateske</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r584899369-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>Management sucks!!!! Kicked us out for a boy under 21 and they let our 18 year old in WITHOUT IDing her....needless to say they wanted her good looks for getting people in the pool! Also our room was dirty!</t>
   </si>
   <si>
+    <t>cudaman2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r584895227-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +216,9 @@
     <t>Started out the first day our room was never cleaned. Next we decided on our vacation Sunday would be our pool day, we went down in the afternoon for my cousins 14th birthday to find out they don't let anyone under 21 in. Which was really odd because there were others in there under 18!!! She said it said that on the webpage, which I still have not found!!! What a joke!! Literally got kicked out for telling them there were underage kids in there...no profanity or hostility from my side!!! Just from the extremely rude workers!!!!! They are awful ppl!!!! Note don't stay here with kids!!!! Pigs!!!!</t>
   </si>
   <si>
+    <t>Tyikmia J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r582488930-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
   </si>
   <si>
     <t>Antonio B was a great help this morning he’s the door hop and he was awesome we locked our keys in the car this morning and he helped assist us with AAA and even stayed til they arrived. Then he helped assist with luggageMore</t>
+  </si>
+  <si>
+    <t>Vik M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r581275261-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -263,6 +278,9 @@
 This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They...It looks like a gothic hotel from inside and trendy from outside. I feel like I am attending Halloween horror nights. Check in was good but I had to wait 15 minutes. Can you believe only 1 person working at the front desk in this big hotel. Check in person was nice. Cool looking bar with moderate drink prices. Happy hour selection is a joke. You are giving few drinks which don't cost a lot but you can provide at least 6 to 8 selections. Lobby was clean! get to the elevator and I felt like I am in a submarine. Cool elevators! It is not bright when I walk from elevator to room and like I said Halloween Horror nights. It is something different I experienced. Bathroom was amazing in our room. If you are a light sleeper please don't book this hotel since it is next to the highway. It was ok for me. No complimentary Breakfast provided at this hotel and the breakfast is expensive. There are lot of options for breakfast within 2 miles away if you stay at Lorenzo. If you have a corporate card go for this hotel but with family I would go Hilton or Marriot properties since they have COMP breakfast. This hotel is not cheap so they should expect Guest requires higher satisfaction. This hotel has 1 main issue that will be a legal issue someday which is Bed railing. They have wooden bed railing and it is sharp. Someone will get cut or hurt themselves. If you are a family that will be traveling with kids Please watch out. Pros: Clean hotel and Clean Beds         Laundry facility         Located in Downtown DallasCons: Lack of front desk staff          Answer phone quickly when called from room. Like I said short of staff.          Beer Selection for happy hour should be expanded. Like I said this hotel is             not cheap.          No Complimentary toothpaste, toothbrush or shavers for guest.           No Comp breakfastMore</t>
   </si>
   <si>
+    <t>MsEnds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r580661919-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -281,6 +299,9 @@
     <t>I travel for work often and honestly have never checked into a hotel where I’ve actually seen roaches. I arrived pretty late and took a shower, so I didn’t notice anything odd. The hotel had mediocre service and accommodations but it’s not like my expectations were high going in. In the morning I woke up and saw 3 roaches in the room. It just makes me wonder how many more there were. The hotel has kind of a weird funky vibe, which is cool with me. However the bug problem makes me cringe. I will not be going back and will recommend that our company no longer uses this property. Very disappointing experience. More</t>
   </si>
   <si>
+    <t>Mandy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r577733785-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>Had a great stay at the Lorenzo had good food( it didn’t really match the hotel though. Outdated menu served best as it could be. Then we took a lyft and our driver was actually the Sous Chef! Chef Alex was great as a driver and great as a cook!More</t>
   </si>
   <si>
+    <t>ashlyllloyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r575753477-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -336,6 +360,9 @@
   </si>
   <si>
     <t>Our family stayed for a night with our two teenage children to attend a concert.  I have to admit we were all impressed with the hotel. We were in a double bed corner room that was decorated strange but awesomely cool. The kids loved the decorative pillows, my husband loved the view and I loved the lounge chairs in the room. My son loved the lamp and it was so much fun and allowed us to step out of our comfort zone of normal basic hotel rooms. Beds were comfortable and room was clean. Little noise even for our room that overlooked the pool and highway. I didn’t give four stars because the lack of food choices and huge crowd at the bar made it difficult. There were only two bartenders and it was difficult to get even a beer. We ended up ordering from a pizza place that delivered instead. Everyone was really nice and it was a great experience. We enjoyed it so much my husband and I we are coming back alone for our Anniversary trip in about 3 days. Looking forward to another great room and great experience. More</t>
+  </si>
+  <si>
+    <t>kpummill2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r575197637-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -358,6 +385,9 @@
 Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and...Many Pros:  We enjoyed our three-night stay this past weekend at the Lorenzo. The artsy vibe was fun... and our double room was clean, spacious and well-appointed with everything we needed!  The location was a quick walk to the convention center... which was very nice! The peaceful pool area had a beautiful ambience at night and was a nice place to relax after a full day.  The service from the front desk was polite and prompt. Self-parking was easy and convenient... and just steps from the main entrance. (That’s a huge perk downtown!) Room for Improvement:  If Lorenzo Kitchen had better service, I would have given this hotel five stars.  We had dinner there the first night we arrived and the male waiter with the long black ponytail was extremely rude and literally slammed our silverware onto the table... then gruffly asked what we wanted for dinner. We had not even been greeted or asked for a drink order... let alone told anything about the menu or specials.  It was odd.  When we ordered an appetizer, he brought the small plates over and again slammed them down onto the table... it was a bit startling to all four of us. We just looked each other with huge eyes! It was very very odd!! And the entire dinner experience continued as such. Maybe he was just having a bad night but he shouldn’t have taken it out on four polite and friendly customers... or anyone for that matter. Very very rude and extremely unprofessional. I will say however, the shrimp and grits were fantastic!! So kudos to the kitchen!! Just might want to replace the horribly immature waiter.  The second time we visited the Lorenzo kitchen, we were seated at 9:40.... never asked for drink order... and didn’t check on us to order until after 10 PM... and then told us the kitchen was closed. Hmmm.  We went directly to the bar to get a drink and the nice brunette female bartender was able to put in an order for hummus just so we could have something to eat after a long day. There really isn’t much around the hotel unless you cross the highway. So, my suggestion to the hotel would be to stay open a little later or hire a few extra servers on nights when you have a sold out hotel. Because the food is delicious and the drinks were great... but service is definitely something that needs to be addressed. More</t>
   </si>
   <si>
+    <t>Shellseeker58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r571589511-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -382,6 +412,9 @@
     <t>HGTV meets Walking Dead was my first impression of The Lorenzo Hotel. Hands extruding from the wall holding room numbers; life-sized blue men extruding from the sides and roof of the building; empty picture frames and paintbrushes plastered to the ceiling above your bed; eyeballs of various sizes peering and peeking at you; portholes in the elevator allowing you to view companions in other elevators--- it's weird and wacky, but the hotel staff is very nice, the restaurant is okay, and the parking is very handy. Lots of drifters and homeless types around the perimeter and lots of highway noise take away from the creature comforts of a cozy bed and a funky hotel.More</t>
   </si>
   <si>
+    <t>K T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r566771460-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -403,6 +436,9 @@
     <t>Had a wonderful visit to Dallas. I think the best part of the hotel was the bartenders. Megan and Victoria took care of everything we needed. They went truly above and beyond. This place is lucky to have them! The food was mediocre, but Megan made up for that with her kindness and her persistence for us to stay. More</t>
   </si>
   <si>
+    <t>jarhead513</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r566283219-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -421,6 +457,9 @@
     <t>Based on a 2 day stay with my wife, 15 year old daughter and her friend, this was a delightful surprise. The location of the hotel is close to downtown Dallas, yet has great view of the city if you get a room facing west or north. Looking out from our 11th floor room Reunion Tower and the Dallas skyline views were picturesque. The parking area is very safe and under observation by hotel staff. Our check in was easy and staff were very friendly and accommodating, even printing some Six Flags tickets for us. The Lorenzo has attractive color changing LED lighting on the exterior of the building and a lot of abstract-like interior decoration. Music emanates throughout common areas and a delightful fragrance sets a festive mood. Rooms also have art deco and are very clean and spacious. Amenities are as expected with the exception of a microwave. We left the hotel to do stuff and the room was pretty messy from our two 15 year old girls, yet housekeeping staff really did a great job on cleaning and squaring everything away for our return. Thank you!We loved this hotel and would recommend it to anyone.More</t>
   </si>
   <si>
+    <t>LibraZebra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r564411555-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -439,6 +478,9 @@
     <t>Anniversary night out away from kids.  NYLO hotel was booked so they referred us to Lorenzo.  Really, just perfect.  Little whacky, little classy, extra clean and super cool.  Throws off multiple vibes... just pick the one you like best.  Can’t wait to come back.More</t>
   </si>
   <si>
+    <t>Ashley M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563988573-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -460,6 +502,9 @@
     <t>What a cool place with an amazing view of downtown! I think we spent most of our time there looking at all of the decor. My husband was fascinated by the elevators and light fixtures. Me, I could never choose what was my favorite. It was quiet and a very pleasant experience. Breakfast the next morning was so good! We will be back!More</t>
   </si>
   <si>
+    <t>huskerlayd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563587421-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -481,6 +526,9 @@
     <t>We came here for NCA Cheerleading and it ended up being the ideal location to get to and from the convention center with ease!  5 minute walk max.  Area of town is sketchy but most of downtown near the convention center is.  The hotel is clean and the staff nice.  The art is very eclectic and not relaxing but a overall a fun space.  The food was excellent.  Service on the slow side but that's to be expected since we bombarded the hotel with cheerleaders and lots of late nights.  I'd stay here again.  It is a bid loud with highway but that's also to be expected.More</t>
   </si>
   <si>
+    <t>Melissa C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r563170579-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -499,6 +547,9 @@
     <t>I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the...I booked thru Expedia for 2/23-2/25 - we were on our way to the hotel when I called to see about dropping off our luggage early.  We were in Dallas for the largest cheer competition in the world.. so Dallas was packed with over 25,000 cheerleaders.  When I spoke to the lady she said that was fine buttttttttt that I was booked in a king room with 2 adults and 2 kids.. I said yes I knew that but when I called (before I booked) I asked how that worked and was told that the room had a couch that turned into a bed.  I sd ok and booked via Expedia.  She told me no that was not correct and that they were all booked on the queen rooms and all the roll away beds were spoken for.  I was furious to say the least.. we booked only bc of the info we were told by a staffer at the Lorenzo ( a guy with a foreign accent) otherwise we would have booked somewhere else... I said that we had no choice but to make it work bc every hotel in Dallas by the convention center was not booked since it was the first day of the competitions and our only other choices would be far away or pay $500 a night somewhere else.  We had a newborn with us and would have to walk back and forth with the stroller since Uber will not accommodate us without a car seat.. so we had to be close to the convention center.  I told her that we will just need extra bedding and my girls would just have to make pallets on the floor at this point.  She was very rude and said she would find us somewhere else to stay.. I reiterated that there would not be anywhere in our price range that was close to the convention center... she did not seem to care.  I explained that the website and Expedia let us book with 4 people so this was their problem to figure out and I was not happy about this!  She said the website would not allow up to book.. I tried while I was on the call and it did.. I even put in 4 adults (not just 2 adults and 2 kids) and it still gives us this room (deluxe king) as an option.. even today while writing this review it is giving me the king room as a booking option for 4 adults!  But yet the lady I spoke with (who told me she was the mgr) kept telling me I WAS WRONG!  I was beyond upset and shaken up.  A few minutes later I get the text from Expedia that she had cancelled our room!!!!!!!!!!!!  She basically just left us stranded in Dallas with 2 little girls and a newborn baby.  This is HORRIBLE customer service and her attitude was extremely unprofessional with her tone and attitude.  I had her on speaker (thru car speaker) and the other adults in the car heard her tone and attitude and were appalled with the way she was speaking to me.  Basically she didn't care if we had anywhere to stay for the weekend.  Instead of saying I am sorry it let you book that way.. we will make sure yall are comfortable if you wish to still stay with us.  I even had a friend offer to bring us a blow up mattress.  In the end we had to book a hotel that was 3 miles away and we had to drive back and forth all weekend loading and unloading our baby and stroller and the girls all because this lady was unwilling to assist and accommodate us for an error on yal'ls end and Expedia's end.  I am requesting a response to a mgr other than the woman that was so rude to us.  I also suggest you correct your site so that it does not allow you to book 4 adults in the deluxe king room if you will not accommodate for it and especially if it will not hold it.More</t>
   </si>
   <si>
+    <t>Darabtrfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r554864076-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -520,6 +571,9 @@
     <t>We have been more than pleased with the Lorenzo. The decor is weird, young, hip and creative. I keep seeing different interesting touches. The restaurant is good, and the bar is good. The art on the walls and floors is a nice touch More</t>
   </si>
   <si>
+    <t>Carol R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r554274820-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -538,6 +592,9 @@
     <t>Loved the art work and interesting decor.The room was very comfortable, although found it very noisy as it's close to a very busy highway.The food in the restaurant was fairly good.I was attending a convention in the Kay Bailey Hutchison Centre, and didn't find it as easily accessible by walking as the website said, but fortunately the convention had arranged a shuttle service, so all was good in the end.More</t>
   </si>
   <si>
+    <t>Azseahawks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r553565947-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -556,6 +613,9 @@
     <t>Stayed there with a large group.  The water heater was unable to keep up with demand.   The front desk explained they didn't have it set correctly.  Day 2, improved to warm water.  Other than that, it was a decent stay. More</t>
   </si>
   <si>
+    <t>texan_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r552181019-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -574,6 +634,9 @@
     <t>Just finished a 4 day stay here at the hotel and I would highly recommend something else. If you like a hotel that sounds like it is in the middle of the interstate with lots of road noise, a semi warm shower every morning because the water isn’t hot and glass only covers half the shower to keep the steam in, in the middle of a shady neighborhood with nothing in walking distance, etc., this is your place!  I would not recommend walking to the convention center if you have something at the convention either. This hotel was an old Ramada Inn back in the day that has had some lipstick put on it. The beds were comfortable but you couldn’t sit up in bed or the mattress would slide off the frame. More</t>
   </si>
   <si>
+    <t>Alessandro C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r550416819-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -601,6 +664,9 @@
     <t>I am a frequent traveler for both pleasure and business, so I am not a random traveler writing just to complain.However, I would not stay here again or ever recommend it. First off, the hotel is built right next to the major high way, so there is no peace and quiet. Secondly, the front desk lacks any basic things like tooth paste or tooth brush kits, or a little convenience section to purchase these items. Also, given it’s location, one can’t just run across street to a walgreens. Also, if the noise from the highway doesn’t keep you up, the music from the lobby will.Oh, they also apparently don’t heat the front lobby, hallways, or restaurants, as I was freezing while eating breakfast.There are some positives. The rooms are very large, and the food in restaurant is ok, even if expensive.Do yourself a favor, spend a few extra dollars and stay closer to downtown, at least breakfast is included at the other places.More</t>
   </si>
   <si>
+    <t>Michelle C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r547842054-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -626,6 +692,9 @@
   </si>
   <si>
     <t>(The room was purchased for my son who was turning 23)  He loved the appearance of the room - it was very cool looking and in a great location in Dallas.  It was close to night life.  I asked him if he thought families would like it and he gave me a funny look and said "No!"More</t>
+  </si>
+  <si>
+    <t>dallas75208</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r547221312-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -655,6 +724,9 @@
 After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the...I stayed at the Lorenzo last week for the third time.  I forgave flaws from the earlier visits because it was new and we understood there were to be growing pains, especially with the departure of the person in charge of food.  Also, the price was pretty good for the location.But, the honeymoon is over and the management of this place needs to step up.   On the good side, the beds are comfortable and the room is nice, with plenty of outlets and USB hubs for the modern traveler.  Those are good touches.Service needs to step up.   How is it that a hotel that positions itself as a stylish, hip, downtown hotel cannot have food available after 10 p.m.?  The bar / restaurant does not serve any food after that time.  There is no in-room dining.  There are not even any vending machines!  I have never encountered something like this except at a roadside motel.  It was astonishing and no one even understood that it was a problem.  They just handed me menus for Chinese and pizza delivery.  After a hard day of work, I returned to my room at 3 p.m.  It had not been cleaned.  The bag of take out food (see note above) was still there, smelling.  I called down to report what I thought was an oversight.  Instead of an apology or an offer for someone to come up and quickly take out the trash and bring fresh towels (as other hotels do when housekeeping is late), I got a terse reply that the window for housekeeping allowed the room to be made up any time before 5:30!  Wow.There are other incidents like this that lead me to believe that management here does not know how to provide good guest service.   It's nice to stay at independent, boutique hotels, but this is the problem.There are several hotels nearby in the same price range. I'll try one of them next.More</t>
   </si>
   <si>
+    <t>quan n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r546982496-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -673,6 +745,9 @@
     <t>Mr. Gabe at the front desk was great helping us out with the room selection for our family. Hotel is in the heart of downtown Dallas with so many places to visit. This is our second times in Dallas but the first times staying at the Lorenzo Hotel, we would definitely come back bad stay here in the future. Thank you Gabe.More</t>
   </si>
   <si>
+    <t>CourtneyDN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r542232149-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -700,6 +775,9 @@
     <t>My husband and I just got back from Dallas.  We stayed at Lorenzo for 4 nights.  I initially booked it because my husband was there for a convention downtown and Lorenzo was only a mile away.  I figured we could walk downtown whenever we wanted.  While my husband did walk 'home' from the convention in the evening, I found that I did not entirely feel comfortable walking by myself and ended up Lyfting.  The hotel is kind of in a dicey area, my Lyft driver told me he was glad I requested a Lyft instead of walking.  I hate to say that because I am very comfortable walking around in most neighborhoods, but more than one local told me it wasn't safe, so take that for what it's worth.Other than the lack of walking the neighborhood, this hotel was perfect!  It is very funky - almost like, trying to be hipster, but whatever.  The room was large, clean and comfortable.  Service was amazing!  I definitely recommend this place.  Enjoy!More</t>
   </si>
   <si>
+    <t>maxie t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r542208466-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -715,6 +793,9 @@
     <t>Man where to start? The hotel front desk clerks are so awesome. They went above and beyond for  me and my  group. the hotel beds are comfortable and the sleep was awesome. the bar staff is so Friendly and great. I felt like I was at a family reunion. Lorenzo HOTEL 5* STAR.More</t>
   </si>
   <si>
+    <t>lllambert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r540710289-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -733,6 +814,9 @@
     <t>The Lorenzo Hotel was an amazing property!  It is ultra modern, super clean and ALL the staff are friendly, helpful and professional.  The rooms are spacious and have all the modern amenities you need when traveling, whether for business or pleasure.More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r537235364-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -751,6 +835,9 @@
     <t>I recommend this hotel. Rooms are nice with many electrical lights/lamps and power/USB connections. Both the hotel cafe and the kolache bar in parking lot are excellent. The gym is very modern and large for a hotel. The outdoor swimming pool area is great and surrounded by art. 12th floor conference rooms offer amazing views of downtown Dallas. It has both valet and self parking, including a very large covered lot with access to the lobby via an elevator. We enjoyed the creative art displayed throughout the hotel. We were here with a group discount $109 plus tax daily rate which was a significant reduction. Even on the 10th floor there is highway noise so if that bothers you, ask for a room away from the freeway. We travel with a white noise maker which covered all that while we slept. Fast WiFi. Good sized Samsung TV in bedroom. Slam bedroom door shut since it won’t lock securely otherwise.More</t>
   </si>
   <si>
+    <t>Margaret C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r536524138-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -769,6 +856,9 @@
     <t>Rooms are super cute. The detail in every aspect of the hotel is incredible. I love the Shakespeare’s carpet in our room. The girls at the bar were friendly and chatty! Loved our stay would def come back!More</t>
   </si>
   <si>
+    <t>Clayburn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r536506297-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -784,6 +874,9 @@
     <t>Great Hotel! Great staff! Just all around awesome weekend for me and my wife’s anniversary. The owners are awesome and definitely and they definitely know how to run a hotel! Lovely corner suite with an awesome view and the bar staff is great!More</t>
   </si>
   <si>
+    <t>Anica  A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r533435098-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -802,6 +895,9 @@
     <t>It was amazing. I stayed in the deluxe room with three of my friends and from the moment we walked through the doors, they were nothing short of kind and welcoming! The room was clean and the staff were polite and conversational. Keep in mind, we're four college students just coming for the weekend and they were absolutely fantastic. It's a relatively new hotel, (I visited in October 2017 &amp; they have only been open 8 months) but everything seemed to run smoothly. If I had any advice to management, I would say add complimentary toiletries! Apart from that, keep it up! I have high hopes for this place!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r533180761-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -820,6 +916,9 @@
     <t>The staff was exceptional and went above and beyond to accommodate. The rooms are unique and full of local art—so fun! The restaurant served excellent food and we ate there several times during our stay. We loved staying here and definitely will returnMore</t>
   </si>
   <si>
+    <t>ericjames1980</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r532845391-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -836,6 +935,9 @@
   </si>
   <si>
     <t>I really wanted this hotel to be good. It looked artsy and liberal. Unfortunately, nothing could be further from the truth. The staff are unhelpful. The accommodations are honestly not that bad, but are sub standard for a hotel in this price range.  Do yourself a favor and stay at the W, the Omni, or literally anywhere else.More</t>
+  </si>
+  <si>
+    <t>peter a</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r529718954-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -867,6 +969,9 @@
 I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here."...I was a guest the last week of September 2017. My company booked a number of rooms for a local conference, spending thousands of dollars. I am an executive of this company. The Lorenzo is a nice hotel, nice rooms, very good food, nice atmosphere. However, I checked out early on a Thursday a.m. and in my rush to go to DFW, I left my new sport coat hanging in the closet. When I returned home and realized my mistake, I called the hotel that evening to ask them to return my coat assuming I would pay shipping, which is fair and reasonable. I spoke with the front desk and with housekeeping, no coat. I called Friday, no coat. I called Monday, no coat. Tuesday, the GM Mr. Nelson called me and left me a voice mail saying they did not find my coat. I called him back, he said they found no coat and essentially implied that I must be mistaken! I am not mistaken. I left my nice new blazer in my room, a room that requires a key to access it. I left out a lot of detail from my various discussions with staff, but in short, only staff had access to the room and my coat vanished. Nothing else is relevant. To make matters worse, the GM, Mr. Nelson, implied that I'm lying or mistaken. He did nothing other than to say "sorry, it's not here." In other words, tough luck. Gee thanks Mr. Nelson. Great customer service. I'm out $350 for the sport coat = your hotel is out thousands in revenue from my company and the reviews I'm going to write on Yelp, FB, and other sites, as promised.More</t>
   </si>
   <si>
+    <t>lizproffitt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r529186660-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,6 +996,9 @@
     <t>It’s unfortunate that this hotel’s owners and management spent more on decor than on service amenities and appropriately training employees in quality service. Three ladies arrived to our double queen room to find ONE water bottle for the three of us staying two nights. We also found TWO disposable coffee cups and TWO plastic disposable water glasses, so not even enough of each to accommodate the maximum room capacity (4 guests). We used those items and they never got replaced by housekeeping. Housekeeping also forgot to bring us wash cloths. Had a tasty breakfast in the hotel “restaurant” and was told by wait staff that they did not have the ability to charge the meal to our room even though there was a charge ticket included in our meal ticket that clearly indicated we could. Upon leaving, we found employees 10 feet from the entrance SMOKING.  And the valet guy calmly WATCHED us drag our suit cases to our car parked 6 feet away from his valet podium and never offered to help us with our luggage as we struggled to load it into the vehicle.  Next time I will stay at a Holiday Inn express and save $115 per night.....More</t>
   </si>
   <si>
+    <t>Cynthia K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r528539927-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -909,6 +1017,9 @@
     <t>I read the reviews but still wanted to stay at the Lorenzo. Check in was 5 min and the staff was very friendly. The rooms were clean and very well decorated. I felt like I was at a ZAZA with a really good price. The pool area was good. Explored the bar area but did not have a beverage. Parking was really safe and easy. Keurig coffee makers, fridge, and safe were in the rooms. Nice sheet and lots of plugs for cell phones.  Highly recommend this hotel and I have stayed at many boutique hotels and found this one to be really nice for the price. I will stay there again.More</t>
   </si>
   <si>
+    <t>Ron M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r527018671-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1044,9 @@
     <t>Our group,Texas State Guard were staying at the Lorenzo in support of Hurricane Harvey. Upon arrival we were greeted by Brad the manager who took very good care of us and got our rooms quickly. During our stay Brad and the staff went the extra mile taking care of our needs. The hotel was great. Very clean and very nice rooms. I would recommend to all. If you are one or a group stay at the Lorenzo. YOU WILL NOT BE DISAPPOINTED..... MacMore</t>
   </si>
   <si>
+    <t>LJohnTravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r522615118-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1071,9 @@
     <t>We were looking forward to staying at the Lorenzo based on the reviews prior to our stay. However, upon arrival (4:40pm) we were met with a long line of other guests trying to check in.As we waited in line, Ms. Lacey Perez informed us the check-in process for a room would be about 2 hours and that we would need to place our names on a waiting list and would be called in order. We asked why? She informed us there were only two housekeeping staff and they were behind in "turning over" rooms.We calmly questioned how unusual it is for a hotel not to be properly staffed on a busy Labor Day Weekend. Ms. Perez apologized and presented a business card that provided us 2 free drinks (valued at $25.00) to wait in the lounge until our name was called.We asked about the policy for canceling our reservation right away. Fortunately, she accepted our frustration for not wanting to wait for 2 hours and canceled our reservation and didn't charge our credit card for penalty.More</t>
   </si>
   <si>
+    <t>Sandy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r521461250-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1092,9 @@
     <t>Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas...Well our 3pm check-in turned out to be a 5pm check in. Rooms were not ready and the lobby was crammed with people waiting. Apologies are nice, but the management should have stepped up and offered all of us waiting (and it became standing room only) a free beverage or access to the pool why we were waiting hours for our rooms. In the rush to get people to rooms mistakes were made and service suffered. (eg. a young couple got there keys and came back down a minute later because people had occupied the room and were having sex). The location is great for getting LYFT/UBER service every where in Dallas, however DO NOT walk away from the property after dark. It is not safe outside the premises, but I felt completely safe there and did walk the freeway overpass in daylight to get to the arts district. The pool area is very fun with music and a bar. Again, about the service...I left my phone charger and called the hotel when I returned home to ask it to be mailed to me. The response I got was, "you can send us a mailing label to pay for postage after you get a call, IF housekeeping finds it". Well, a day later and no call. Would I stay here again? Yes, because now I know what to expect and a good deal close to all the fun in Dallas is worth a few headaches.More</t>
   </si>
   <si>
+    <t>mburgmann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r514359490-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1122,9 @@
     <t>My husband and I checked into this hotel with its outrageous décor for a conference he had to attend. We did not choose this hotel. The room had only 2 small lights and was very difficult to see. We had to ask for room service 3 different times for towels and trash to be emptied. There was nothing in a safe walking distance. The food menu was very expensive. Definitely need to take Uber everywhere. They have no onsite snacks available. There were many other issues, like being locked out of our room one day. The only people that were nice, friendly and helpful were the 2 servers at night time at the bar. They say that there is an outside bar, but it was not opened while we where there. I totally recommend that people stay at the Marriott downtown, it is amazing there.More</t>
   </si>
   <si>
+    <t>fullertl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r513396520-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1143,9 @@
     <t>The Hotel itself is nice however the decor isn't my style.  The surrounding neighborhood is scary the the I-30 highway noise is unacceptable.  One and done on this place so we won't be staying here again. I think there are better choice for a similar price.More</t>
   </si>
   <si>
+    <t>tiffany g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r512854406-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1164,9 @@
     <t>Awesome hotel.  The staff was super friendly.  The bar at the pool was so much fun.  The lady bartending did an awesome job of telling the history of the hotel.  The drinks were awesome.  I think I tried the spicy mango margarita and it was yummy.  They were having a pool party the next day but we were unable to attend due to rain but the atmosphere gave you me the vibe of a pool party in Vegas.  We joined in for the happy hour and had the fries and empanadas both good.  The cab wine I chose was a good brand and good quality for the price.  the over all design of the hotel is nothing like I have ever seen before.  Anyone that loves art would appreciate this hotel.  Last but not least the Lacey at the front desk was phenomenal, she made me and my partner feel so much at home.  She as well did a great job of telling the history of the hotel.  She was so friendly and so helpful.  We will be back again soon.  Thanks for an awesome stay!More</t>
   </si>
   <si>
+    <t>txchef320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r510957172-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1191,9 @@
     <t>This newly remodeled building that is now a hotel is pretty eclectic. Lit up from the outside at night you definitely can't miss it. Very nice staff, awesome rooms even though my Keurig coffee machine didn't work. Rooms were extremely cozy and modern with all appliances. Next time I'm in downtown Dallas I will definitely stay here.More</t>
   </si>
   <si>
+    <t>Edie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r503586327-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1215,9 @@
     <t>Our room had very modern décor which I loved! Not your same hotel chain. The art décor was cool as well, Room was very neat and clean. Room was very spacious AND OPEN.....Staff very presentable and professional. Hotel had a nice bar with a LIVE band playing the night we stayed.This is an OLD hotel that has been redone. No way was our stay disappointing. I would certainly stay here again......More</t>
   </si>
   <si>
+    <t>CDMyres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r503550116-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1242,9 @@
     <t>This boutique style hotel is close to downtown in an artsy district.  From the minute you drive up and enter the building you know you have not checked into your average hotel.  It offers quality amenities that every upscale hotel offers but in an avant-garde setting.  Just exploring every room and hallway is a treat with artwork and decor that is unexpected.  The staff was highly accommodating, and the rooms very comfortable.  The pool is amazing and the bar and restaurant are first rate.  The unexpected decor of each room gives the feeling you are someplace special.More</t>
   </si>
   <si>
+    <t>BryanHouse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r498054708-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1264,9 @@
   </si>
   <si>
     <t>not your normal hotel. the rooms are clean and well maintained. it has a gym, outdoor pool, bar and restaurant. the restaurant is open to 10pm and the bar closes around 11pm.  the entrance has a warm and inviting feel. it is unique i enjoyed my stay here  More</t>
+  </si>
+  <si>
+    <t>Jeff K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r497951886-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -1145,6 +1286,9 @@
 The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby....As a Dallas native (who's only there infrequently these days), I still remember the old days when the building that houses the Lorenzo was a Ramada Inn, followed by the rather lengthy period of time (at least a decade) when the entire building was shuttered after the surrounding Cedars area on the south side of downtown went into decline. The area's seen a revival in recent years, however, including the opening of a branch of the legendary Austin-based Alamo Drafthouse Cinema chain nearby, so I decided to check it out during a short layover in Dallas. Regrettably, it wasn't a pleasant experience.The Lorenzo has quite a few problems, but arguably the biggest is its location. I knew beforehand that the property sits adjacent to a major freeway (I-30), but assumed that anyone doing a gut renovation of a nearly 50-year-old building and converting it into a boutique hotel would install substantial soundproofing materials on its freeway-facing side. Not only did that *not* happen at the Lorenzo, the developers left its window-unit air-conditioners in place! Even aside from the fact that no true "boutique" hotel should have such a low-rent HVAC system in place, in this instance it merely exacerbates an already-bad (and seemingly unmitigated) noise problem. While yes, the hum of the units blocks at least some of the highway noise, it's still unacceptably high -- particularly given the wide range of similarly priced hotels both downtown and nearby.Another problem specific to its location: while Cedars may be on the rise, the immediate vicinity of the hotel isn't there yet ... which segues into another problem, namely the existence of a much nicer *and* less expensive hotel a few blocks away (the NYLO). Further, the NYLO isn't next to a freeway; has multiple nightlife options in its immediate vicinity; is within walking distance of the Alamo Drafthouse; and certainly *feels* much safer, given the presence of a large Dallas Police Dep't station across the street. (FWIW, the NYLO is also a two-minute walk to a station on the city's DART light-rail line.) Aside from the Lorenzo being closer to the downtown convention center (a fairly easy walk, assuming it's during daytime hours), I'm hard-pressed to come up with a reason to pick the Lorenzo over the NYLO. (Okay, I thought of one: the NYLO's rooftop pool deck can get rowdy on weekends.)Finally, I realize interior design is subjective, but the Lorenzo employs practically every boutique-hotel cliche in the book. The rooms contain multiple brazen knockoffs of Philippe Starck designs (chairs, lamps, etc.) - which might be okay if they were at least *recent* knockoffs, but they're ones he designed 20 years ago now. The public areas are somewhat better, though I'm unsure whether the Arne Jacobsen Egg chair and Hans Wegner "Papa Bear" chair in the lobby are legit or also knockoffs. Everything else I saw -- from faux-Warhols in the hallway to blown-up photographs employed as wallpaper and "tree stump" side tables -- was a mish-mash of unoriginal design aesthetics devised elsewhere much more effectively.I hate to see it when hotel operators make such a plethora of mistakes, but in this case we're talking about a property that as of this writing has a massive typo on its website's home page (the "Indulge" header is misspelled as "Induldge"). Moreover, its parent company is one that until fairly recently focused solely on budget chain like EconoLodge and Rodeway Inn. Much like a Dallas woman trying - and failing - to look dolled up with a Louis Vuitton purse and big blonde hair, the Lorenzo's roots are showing.More</t>
   </si>
   <si>
+    <t>William S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r496300084-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1163,6 +1307,9 @@
     <t>Stayed at the Lorenzo Dallas for three days last week – very cool hotel. Very easy check in and the staff could not have been nicer. It is a newly renovated hotel with very nice rooms and a comfortable bar area. Great pool area with an outdoor bar. Very cool lighting through the facility makes this place snap. Novel option for breakfast – in addition to the in-house restaurants, they had renovated containers outside for coffee, pastries, etc. – a very neat concept.  Close to downtown – 5 minute ride. This is a transitioning area so I would be mindful if walking to any local spots. I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>kathypdallas_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r491395920-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1328,9 @@
     <t>What a huge disappointment this hotel was, mainly because the management doesnt know what "hospitality" is. I visited this hotel to see it in person before I decided to book it.  It looks great, eclectic and artsy.  I visited on a Sat night at 1030, and the pool had a lively scene with lots of people hanging out.  However, when we were there, the pool closed at 9pm ("as per policy" management told us).  It had rained from 6-9, so we couldnt enjoy the pool. When it stopped raining at 9, and we wanted to sit by the pool and enjoy a very nice view of Downtown Dallas, management wouldnt allow us to go to the only outdoor seating the hotel has to offer.  And this hotel is not in a neighborhood where you can walk to anything interesting. Its in a sketchy neighborhood.More</t>
   </si>
   <si>
+    <t>diego s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r491232482-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1196,6 +1346,9 @@
     <t>Newly revonated and amazingky designed. From the entry driveway, to every little corner of this amazing Boutique hotel was carefully thought off. The staff is amazingly welcomed and the food equally engaging.My congratulations to the staff anf management team for such great care and delightful experience.A must place to stay, or even to visit and enjoy its eclectic design.More</t>
   </si>
   <si>
+    <t>Racheal D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r490489994-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1367,9 @@
     <t>Great views, trendy decor, super-friendly/helpful staff (Thanks Gabe!) and all around fantastic place to stay! Lorenzo is centrally located with spacious rooms and cute touches-loved the gnome pillows. Location makes it great for a stay-cation!More</t>
   </si>
   <si>
+    <t>Calli B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r486397974-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1388,9 @@
     <t>I cannot begin to describe how wonderful this hotel and all of the staff are at the Lorenzo Hotel. The entire hotel is gorgeous and is so fun.  The rooms are large and comfortable with amazing views.  The food at the restaurants is great.  Sitting at Toast and looking at the spectacular view was a great way to start the day! They went above and beyond any expectations to make our stay absolutely perfect.  I cannot say enough wonderful things about this hotel.  If you want a relaxing, fun, unique, comfortable stay in Dallas that is truly a steal at the price, Lorenzo Hotel is the place to go.  We did not want to leave!  We cannot wait to come back and this will be the only place we stay from now on in Dallas!More</t>
   </si>
   <si>
+    <t>arombs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r480760261-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1416,9 @@
   </si>
   <si>
     <t>This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those...This hotel was a wonderful experience! I am glad we got a room on the parking lot side as I think the freeway side would be quite noisy.  Our room was wonderful, clean and so trendy! My husband was impressed with the décor for sure, namely the big lamp over the chair!  Our air conditioner wouldn't turn off when we wanted some quiet (I'm sorry I forgot to mention that upon check out!) but it didn't keep us awake at all, and perhaps drowned out any outside noise that we may have otherwise heard... The hotel is a very convenient distance to the Kay Bailey Convention Center and we easily walked there each day for our event with no issues or safety concerns.  The staff are wonderful and very helpful and friendly! The only 2 issues we had was that we thought the pool was open and it is not... until.... I think they mentioned June maybe? So ask ahead if you plan to have pool time.  And THE BED FRAME IS A SHIN BUSTER! I didn't have problems but my husband hit the corner of the bed frame which is right at shin level and no posts so you don't see it until it's too late.  We mentioned that at check out and I read several reviews that said the same thing! They should put posts or at least foam on the corners to prevent injuries! Other than those 2 things, this is a great hotel with a very trendy modern style to it and we would definitely stay there again next time we are in the area!! ThanksMore</t>
+  </si>
+  <si>
+    <t>Roderick E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r476267898-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -1291,6 +1453,9 @@
 The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the...It’s always exciting to see a old hotel come back to life and the revitalization of the 1972-built Ramada Inn on South Akard is one such redevelopment.Now rebranded as Lorenzo, the vacant structure was extensively reworked to the tune of $35m to make a funky new art hotel so much in vogue in neighborhoods around the world undergoing urban renewal. ‘Fun, fresh and artsy’ I’m told.Dallas locals will recall a rather unremarkable 12-storey building that ultimately languished in the declining ‘Southside/Cedars’ precinct right across the expressway from the massive convention center. Now the hotel is a reflection of the regrowth in that area which includes the new Four Corners BreweryExternally, the incorporation of the tiny balconies into room space is the first thing anyone will notice about the refreshed hotel. However on the NE and NW facing rooms, noise abatement from the 9-lane expressway is not entirely successful, so you may have to forgo the view of the cityscape and take a south-facing room. A corner room if you can. Tip: keep the a/c on low to help mask any exterior noise.The interior style reminds me our QT Hotels in Australia, the one in Canberra in particular, where art and unusual decor has been incorporated into the designs. Oversize floor lamps, literary quotes on the carpet, mural wallpapers and entirely rebuilt bathrooms are a feature of the new rooms which, although conventional in layout, give the sense of roominess and space.The 12th floor is the new ‘Toast’ restaurant and adjoining function room. The aspect from both is superb and I enjoyed a tasty breakfast from the buffet. Perhaps a little more variety would be nice, but there’s all the staple items like bagels, bacon, cereals, eggs and fresh fruit. I peeked into the kitchen too and it’s all brand new and shiny stainless steel everywhere.Downstairs is a really cool bar with great cocktails (try an Old Fashioned with JR Ewing Bourbon). There was a small but lively crowd still swinging at midnight when I checked in. Outside next to the car park is Kolache Korner, made up of repurposed shipping containers where you can enjoy an outdoor breakfast, daytime snack or quick ‘grab and go’ meal.By the time you read this, the pool should be fully opened and I’m told it will be available to day use guests as well. It’s out the back entrance, next to the gym (with brand new gear).In summary, the Lorenzo is a welcome addition to this neighborhood revival and is keenly priced compared to some of the upmarket properties nearby (eg Omni, Westin et al). Great option for visitors attending the convention center with a relaxed and informal feel.More</t>
   </si>
   <si>
+    <t>Lynswhite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r474954108-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1318,6 +1483,9 @@
     <t>I planned my company sales meeting at this hotel, without seeing the property first, but we were in a pinch and had to grab a hotel for all of our guests, and so I relied heavily on the recommendation that was given to me. Let me tell you, this hotel exceeded all of my expectations. From the staff to the rooms and food, it was the best sales meeting we have had! The hotel was completely renovated, and is absolutely beautiful inside and out. I, and the rest of the company, loved the rooms.. the décor is stunning! The staff was more than accommodating and jumped at any request anyone had. As a planner, you often find it difficult to work with certain hotels, but not this one. The entire staff was extremely friendly, efficient and overall exceptional to work with. The food, which was my favorite part, was delicious! We pretty much had every meal catered by the hotel, and it was all wonderfully presented and I did not hear one complaint from any of our guests..... Well, maybe that they were always stuffed. We had a formal dinner that was to die for! If you are planning a meeting, I highly recommend this lavish hotel. They are simply amazing to work with!More</t>
   </si>
   <si>
+    <t>puppersjax87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r471529990-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1513,9 @@
     <t>This hotel far surpasses anywhere I have stayed in Dallas, and I frequent Dallas hotels yearly! It is extremely unique and you won't find anything like it! The front desk staff and the bar/restaurant staff were the best part of our stay. The food in Lorenzo Kitchen is fantastic, highly recommend the Shrimp &amp; Grits. Cocktail menu is great, they have some traditional cocktails and some very unique cocktails that fit their unique style. The beds are extremely comfortable and the rooms in general are very cozy. It is not a chain, so that was very nice, you don't have to deal with all the sales pitches. I honestly don't know how anyone has anything bad to say about this place!More</t>
   </si>
   <si>
+    <t>JoeJ777jqka</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r468156847-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1540,9 @@
     <t>The hotel is beautifully decorated and staffed by very professional and enthusiastic employees.  Planned on 3 days and ended staying for a week and was offered excellent rates by mgmt.   Its a new hotel and not part of a mega-chain, which I like.  No room service yet but dozens of delivery options thanks to UberEats.  Their restaurant on the 12th floor serves breakfast and dinner and does a great job packing to go orders to take to your room.  The bar has a hipster look and feel and two thumbs up on the nod to The Bard (William Shakespeare) throughout the hotel including carpeting with words from his famous works.More</t>
   </si>
   <si>
+    <t>lorim395</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r466567396-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +1567,9 @@
     <t>I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and...I booked 3 rooms for coworkers to attend a convention. They needed a credit card to hold the reservation, which is standard procedure, so I used my personal card. They charged my credit card 2 weeks before their arrival for the first night, which I wasn't thrilled about. But I knew that when my coworkers arrived at the hotel they would replace the card on file with their personal cards, which they did. However, I still haven't received the refund to my personal card. I called them twice, e-mailed them several times, and received no response whatsoever. I'm about to call them again and unleash some serious anger. They've completely ignored me and they still owe me over $400. I'm going to make it my personal mission to influence as many people as I can NOT to stay at this hotel. And since I book about 600 hotel rooms a year for my company, and there are always conferences in Dallas, I will be sure never to send them business again. I don't care if the convention is being held in their damn lobby, I will never ever give them business again. I need to arrange an event in 2018 for my industry. I'm going to push for that event to be in Dallas JUST so I can send business to surrounding hotels and NOT them. I'm sure I'll get my money refunded, but they've completely ignored my calls and e-mails and that's completely unacceptable.More</t>
   </si>
   <si>
+    <t>Hillary S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r464343740-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1594,9 @@
     <t>What a find! I stayed here for 2 nights this past week because of the proximity to the convention center and am so glad I did. Right when you pull up you can see that the hotel decor and vibe is very different from the norm.The guest rooms are uniquely designed with local art. My friend and I had dinner in Lorenzo Kitchen one night and the chicken &amp; dumplings were to die for. The staff is some of the best I've encountered. Unfortunately, the pool area wasn't open yet, but will be in a few weeks and looks like it is sure to be a hot spot!  I can't wait to come back.More</t>
   </si>
   <si>
+    <t>Moneyhun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r464341738-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +1612,9 @@
     <t>I stayed at Hotel Lorenzo just after they opened and loved it!  Easy parking, easy access to downtown and the freeways, spacious room and very comfortable bed.  The staff was so friendly.  I would recommend it for anyone traveling to Dallas for a quick weekend or a week of business.  You'll love it!More</t>
   </si>
   <si>
+    <t>tcramer23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r462136754-Lorenzo_Hotel-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1637,9 @@
   </si>
   <si>
     <t>My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at...My family and I stayed here for three days this past weekend. The staff was pleasant and did the best they could with what they had. This hotel is not in the best neighborhood and you do not want to travel on foot anywhere at night with exception to the Convention Center and I am not sure at night you would want to do that. If you do stay here- make sure you ask for a room away from the highway. I thought that I had a window open- the highway noise was consistently noisy night and day. You also WILL hit your shin on the protruded bed frame. We had 4 of the rooms booked this past weekend and 3 of us mentioned this the first night. Two of the four room guests were bleeding from hitting the bed frames. I stay in a hotel from 25-40 nights a year and this past weekend stay was the first time I had something stolen from my room from the staff. Not something stolen from out in the open- but they had to OPEN my daughters suitcase and STEAL something from it. First time I have ever experienced that from a hotel. I really still have not heard anything from the management except they were looking into it. I emailed them early yesterday morning and no response whatsoever. Many other hotels in downtown Dallas- my suggestion would be to stay at any of them other than this hotel. I really do feel sorry for the staff (except for the one that stole from my family), as most were very nice and apologetic for all of the problems we encountered here. One last thing- not a good neighborhood. One block away was a vandalized car that had all windows broken out and been stripped. Two blocks away was a "skid row" type are where within a one block area had 25-35 people sleeping on the sidewalk. so- you do not want to just "walk around" from this hotel either.More</t>
+  </si>
+  <si>
+    <t>Thayer P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12170988-r461730666-Lorenzo_Hotel-Dallas_Texas.html</t>
@@ -1982,43 +2168,47 @@
       <c r="A2" t="n">
         <v>16291</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>167024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2032,50 +2222,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>16291</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>167025</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2089,50 +2283,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>16291</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>167026</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2146,50 +2344,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>16291</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>167027</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2201,56 +2403,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>16291</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>167028</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2266,56 +2472,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>16291</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>98924</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2327,56 +2537,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>16291</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>57053</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2388,56 +2602,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>16291</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>167029</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2449,47 +2667,51 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>16291</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>167030</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2506,56 +2728,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>16291</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>167031</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2573,56 +2799,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>16291</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>4654</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2634,56 +2864,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>16291</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>48072</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2701,56 +2935,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>16291</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>167032</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>136</v>
       </c>
-      <c r="L14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>125</v>
-      </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2762,56 +3000,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X14" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>16291</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2823,56 +3065,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>16291</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>167033</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2890,56 +3136,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X16" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16291</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>15342</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2957,56 +3207,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X17" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16291</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>167034</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3018,56 +3272,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>16291</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>47874</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3085,56 +3343,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X19" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>16291</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>167035</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3146,56 +3408,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X20" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>16291</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>167036</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3207,56 +3473,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X21" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>16291</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>167037</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3268,56 +3538,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>16291</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>9032</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3333,56 +3607,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>16291</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>167038</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3398,56 +3676,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="X24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>16291</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>167039</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3459,56 +3741,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>16291</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>167040</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3526,56 +3812,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>16291</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>167041</v>
+      </c>
+      <c r="C27" t="s">
+        <v>249</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="K27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3593,56 +3883,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>16291</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>167042</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3660,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>16291</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>967</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3721,56 +4019,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>16291</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>9508</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O30" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3782,56 +4084,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>16291</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>167043</v>
+      </c>
+      <c r="C31" t="s">
+        <v>276</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3843,56 +4149,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>16291</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>167044</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O32" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3910,56 +4220,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X32" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>16291</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>289</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3971,47 +4285,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>16291</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>167045</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
@@ -4028,56 +4346,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="X34" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>16291</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>167046</v>
+      </c>
+      <c r="C35" t="s">
+        <v>303</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="J35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="K35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4095,56 +4417,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>16291</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>167047</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4160,56 +4486,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="X36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>16291</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>77139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4227,56 +4557,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="X37" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="Y37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>16291</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>6867</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4294,56 +4628,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>16291</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>167048</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4361,56 +4699,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="X39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>16291</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>53747</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4426,56 +4768,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="X40" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="Y40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>16291</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>167049</v>
+      </c>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="O41" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4493,56 +4839,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="X41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>16291</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>167050</v>
+      </c>
+      <c r="C42" t="s">
+        <v>364</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4554,56 +4904,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="X42" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>16291</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>167051</v>
+      </c>
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="O43" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4621,56 +4975,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="X43" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>16291</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>167052</v>
+      </c>
+      <c r="C44" t="s">
+        <v>378</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4682,56 +5040,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="X44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="Y44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>16291</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>25786</v>
+      </c>
+      <c r="C45" t="s">
+        <v>387</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4749,56 +5111,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="X45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>16291</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>167053</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="O46" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4814,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>16291</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>167054</v>
+      </c>
+      <c r="C47" t="s">
+        <v>404</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="J47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4875,56 +5245,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X47" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>16291</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>39254</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -4942,56 +5316,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X48" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>16291</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="O49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5009,56 +5387,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X49" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y49" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>16291</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>167055</v>
+      </c>
+      <c r="C50" t="s">
+        <v>425</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5076,56 +5458,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X50" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>16291</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>167056</v>
+      </c>
+      <c r="C51" t="s">
+        <v>432</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="L51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="O51" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5137,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X51" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>16291</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>167057</v>
+      </c>
+      <c r="C52" t="s">
+        <v>438</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5204,56 +5594,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X52" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>16291</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>167058</v>
+      </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>395</v>
+        <v>447</v>
       </c>
       <c r="J53" t="s">
-        <v>396</v>
+        <v>448</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="L53" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5269,56 +5663,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="X53" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Y53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>16291</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>167059</v>
+      </c>
+      <c r="C54" t="s">
+        <v>452</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5334,56 +5732,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="X54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="Y54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>16291</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>167060</v>
+      </c>
+      <c r="C55" t="s">
+        <v>462</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>409</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>410</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>412</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="O55" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5399,56 +5801,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="X55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="Y55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>16291</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>167061</v>
+      </c>
+      <c r="C56" t="s">
+        <v>471</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5466,56 +5872,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="X56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="Y56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>16291</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>167062</v>
+      </c>
+      <c r="C57" t="s">
+        <v>481</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="O57" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -5531,56 +5941,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="X57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="Y57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>16291</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>167063</v>
+      </c>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="J58" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="K58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="L58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="O58" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5596,56 +6010,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="X58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="Y58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>16291</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>167064</v>
+      </c>
+      <c r="C59" t="s">
+        <v>500</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>445</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5663,56 +6081,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="X59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="Y59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>16291</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>46530</v>
+      </c>
+      <c r="C60" t="s">
+        <v>509</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="J60" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="K60" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="L60" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5730,56 +6152,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="X60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="Y60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>16291</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>167065</v>
+      </c>
+      <c r="C61" t="s">
+        <v>518</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="J61" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="K61" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="L61" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O61" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5797,56 +6223,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="X61" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="Y61" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>16291</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>167066</v>
+      </c>
+      <c r="C62" t="s">
+        <v>524</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="J62" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="K62" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="L62" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -5864,56 +6294,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="X62" t="s">
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="Y62" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>16291</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>167067</v>
+      </c>
+      <c r="C63" t="s">
+        <v>533</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="J63" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="K63" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="L63" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="O63" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -5931,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="X63" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="Y63" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
